--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10463" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC0B220-B49D-4E91-9AF2-79B05F0C075D}"/>
+  <xr:revisionPtr revIDLastSave="10464" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57631D31-5089-4A1D-8312-7251ECE7BFBE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="2023" sheetId="36" r:id="rId6"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
+    <sheet name="Stats" sheetId="1" r:id="rId7"/>
     <sheet name="Wins-Losses" sheetId="37" r:id="rId8"/>
     <sheet name="Winning Percentile Range" sheetId="39" r:id="rId9"/>
   </sheets>
@@ -1310,7 +1310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1331,7 +1331,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1358,7 +1358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
+              <c:f>Stats!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1394,7 +1394,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1415,7 +1415,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1442,7 +1442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
+              <c:f>Stats!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1862,7 +1862,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1911,7 +1911,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1938,7 +1938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
+              <c:f>Stats!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7920,7 +7920,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7970,7 +7970,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
         <v>-0.5</v>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="3">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -8054,7 +8054,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="3">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.39473684210526316</v>
       </c>
     </row>
@@ -8075,7 +8075,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="3">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.71111111111111114</v>
       </c>
     </row>
@@ -8100,7 +8100,7 @@
         <v>77</v>
       </c>
       <c r="F8" s="6">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.52760736196319014</v>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
         <v>12.833333333333334</v>
       </c>
       <c r="F9" s="6">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.52760736196319014</v>
       </c>
     </row>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10464" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57631D31-5089-4A1D-8312-7251ECE7BFBE}"/>
+  <xr:revisionPtr revIDLastSave="10485" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C5D05A-6FB2-4639-AEDD-CB1598B9C6EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="360">
   <si>
     <t>ROUND</t>
   </si>
@@ -1112,6 +1112,15 @@
   </si>
   <si>
     <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>CHINA OPEN</t>
+  </si>
+  <si>
+    <t>7-5 5-7 7-6(2)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-2</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1387,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1471,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +1967,7 @@
                   <c:v>0.39473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71111111111111114</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5024,8 +5033,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A69" activeCellId="16" sqref="A2 A5 A8 A11 A18 A23 A25 A30 A32 A38 A44 A50 A53 A58 A63 A66 A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6938,10 +6947,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E71" activeCellId="17" sqref="E2:E6 E8:E10 E13 E16 E18 E21:E23 E26 E29 E31 E34 E37 E40:E43 E46 E49:E51 E56:E59 E61:E62 E65:E69 E71:E77"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E79" activeCellId="18" sqref="E2:E6 E8:E10 E13 E16 E18 E21:E23 E26 E29 E31 E34 E37 E40:E43 E46 E49:E51 E56:E59 E61:E62 E65:E69 E71:E77 E79:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7906,6 +7915,82 @@
         <v>331</v>
       </c>
     </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>357</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>339</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>270</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7920,7 +8005,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8063,20 +8148,20 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8085,7 +8170,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8093,15 +8178,15 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.52760736196319014</v>
+        <v>0.53293413173652693</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8110,7 +8195,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>13.666666666666666</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8118,15 +8203,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>27.166666666666668</v>
+        <v>27.833333333333332</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>12.833333333333334</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>0.52760736196319014</v>
+        <v>0.53293413173652693</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10485" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C5D05A-6FB2-4639-AEDD-CB1598B9C6EC}"/>
+  <xr:revisionPtr revIDLastSave="10486" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03004047-3EA7-47FA-B850-E628A2AE93D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3370,7 +3370,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3382,7 +3382,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3761,21 +3761,21 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3883,12 +3883,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3903,21 +3903,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -4657,21 +4657,21 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" activeCellId="7" sqref="A2 A5 A10 A15 A17 A19 A22 A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5033,21 +5033,21 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5925,21 +5925,21 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>319</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>325</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>325</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -6949,22 +6949,22 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E79" activeCellId="18" sqref="E2:E6 E8:E10 E13 E16 E18 E21:E23 E26 E29 E31 E34 E37 E40:E43 E46 E49:E51 E56:E59 E61:E62 E65:E69 E71:E77 E79:E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>306</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8005,20 +8005,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0.53293413173652693</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10486" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03004047-3EA7-47FA-B850-E628A2AE93D3}"/>
+  <xr:revisionPtr revIDLastSave="10506" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10DC0EE-F7DF-496D-9D34-4C442B8CA3BE}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="362">
   <si>
     <t>ROUND</t>
   </si>
@@ -1121,6 +1121,12 @@
   </si>
   <si>
     <t>7-6(5) 6-2</t>
+  </si>
+  <si>
+    <t>6-0 7-5</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1393,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,7 +1477,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,7 +1973,7 @@
                   <c:v>0.39473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.68627450980392157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,7 +3376,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3382,7 +3388,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3761,7 +3767,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3903,7 +3909,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4657,7 +4663,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5033,7 +5039,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5925,7 +5931,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6947,10 +6953,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E88" activeCellId="15" sqref="E11 E14 E19 E24 E27 E32 E35 E38 E44 E47 E52 E54 E63 E83 E86 E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7949,7 +7955,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -7989,6 +7995,68 @@
       </c>
       <c r="F83" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" t="s">
+        <v>308</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" t="s">
+        <v>270</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>353</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8005,7 +8073,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8148,20 +8216,20 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.68627450980392157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8170,7 +8238,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8178,15 +8246,15 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.53293413173652693</v>
+        <v>0.52662721893491127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8195,7 +8263,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>13.833333333333334</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8203,15 +8271,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>27.833333333333332</v>
+        <v>28.166666666666668</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>13</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>0.53293413173652693</v>
+        <v>0.52662721893491127</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10506" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10DC0EE-F7DF-496D-9D34-4C442B8CA3BE}"/>
+  <xr:revisionPtr revIDLastSave="10507" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA2D153-5791-4384-AA74-3D6B61B30065}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3376,7 +3376,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3388,7 +3388,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3767,21 +3767,21 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3889,12 +3889,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3909,21 +3909,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -4663,21 +4663,21 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5039,21 +5039,21 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5931,21 +5931,21 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>319</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>325</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>325</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -6955,22 +6955,22 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E88" activeCellId="15" sqref="E11 E14 E19 E24 E27 E32 E35 E38 E44 E47 E52 E54 E63 E83 E86 E88"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>306</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>324</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>325</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>325</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8073,20 +8073,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0.52662721893491127</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10507" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA2D153-5791-4384-AA74-3D6B61B30065}"/>
+  <xr:revisionPtr revIDLastSave="10509" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82D5DB78-D5A8-4FD3-997D-8785BDAE4D4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -3461,10 +3461,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3768,7 +3764,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,7 +3906,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4664,7 +4660,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5040,7 +5036,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5932,7 +5928,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6955,8 +6951,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8073,7 +8069,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10509" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82D5DB78-D5A8-4FD3-997D-8785BDAE4D4D}"/>
+  <xr:revisionPtr revIDLastSave="10510" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{848F4802-19D6-4FDB-B610-1B1918D175A9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3767,17 +3767,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3885,12 +3885,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3909,17 +3909,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -4663,17 +4663,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5039,17 +5039,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5931,17 +5931,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>319</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>325</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>325</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -6951,22 +6951,22 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>306</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>324</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>325</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>325</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8072,17 +8072,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0.52662721893491127</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10510" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{848F4802-19D6-4FDB-B610-1B1918D175A9}"/>
+  <xr:revisionPtr revIDLastSave="10511" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FEC59C2-1F51-4C99-8562-A05443C12B26}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -3461,6 +3461,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3767,17 +3771,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3797,7 +3801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3885,12 +3889,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3909,17 +3913,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4007,7 +4011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4123,7 +4127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4177,7 +4181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4383,7 +4387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -4663,17 +4667,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4789,7 +4793,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4871,7 +4875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -4959,7 +4963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5039,17 +5043,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5103,7 +5107,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5295,7 +5299,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5309,7 +5313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5343,7 +5347,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5391,7 +5395,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -5425,7 +5429,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +5491,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -5769,7 +5773,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5811,7 +5815,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5931,17 +5935,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6015,7 +6019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -6097,7 +6101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6159,7 +6163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6543,7 +6547,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6571,7 +6575,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6591,7 +6595,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6619,7 +6623,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6667,7 +6671,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6681,7 +6685,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6701,7 +6705,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6777,7 +6781,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>319</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6811,7 +6815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6825,7 +6829,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>325</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>325</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -6955,18 +6959,18 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7110,7 +7114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +7162,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -7387,7 +7391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7497,7 +7501,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7511,7 +7515,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>306</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7607,7 +7611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -7647,7 +7651,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7689,7 +7693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7723,7 +7727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7847,7 +7851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7903,7 +7907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -7937,7 +7941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>324</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>325</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>325</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8072,17 +8076,17 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8123,7 +8127,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8165,7 +8169,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8207,7 +8211,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8253,7 +8257,7 @@
         <v>0.52662721893491127</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10511" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FEC59C2-1F51-4C99-8562-A05443C12B26}"/>
+  <xr:revisionPtr revIDLastSave="10563" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C424945B-E5DC-41CC-BCA5-AE2A363FBB4C}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="2021" sheetId="28" r:id="rId4"/>
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="2023" sheetId="36" r:id="rId6"/>
-    <sheet name="Stats" sheetId="1" r:id="rId7"/>
-    <sheet name="Wins-Losses" sheetId="37" r:id="rId8"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId9"/>
+    <sheet name="2024" sheetId="40" r:id="rId7"/>
+    <sheet name="Stats" sheetId="1" r:id="rId8"/>
+    <sheet name="Wins-Losses" sheetId="41" r:id="rId9"/>
+    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="367">
   <si>
     <t>ROUND</t>
   </si>
@@ -1127,6 +1128,21 @@
   </si>
   <si>
     <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>Brenda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-7(4) 6-3 6-3 </t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1362,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1368,15 +1384,18 @@
                 <c:pt idx="5">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$7</c:f>
+              <c:f>Stats!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1395,12 +1414,15 @@
                 <c:pt idx="5">
                   <c:v>51</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F5B-469C-B39A-98CABC5D4F93}"/>
+              <c16:uniqueId val="{00000000-C651-4682-B258-C06C78397AB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1430,10 +1452,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1452,15 +1474,18 @@
                 <c:pt idx="5">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$7</c:f>
+              <c:f>Stats!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1479,12 +1504,15 @@
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F5B-469C-B39A-98CABC5D4F93}"/>
+              <c16:uniqueId val="{00000001-C651-4682-B258-C06C78397AB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,11 +1526,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="838169936"/>
-        <c:axId val="838156624"/>
+        <c:axId val="128722847"/>
+        <c:axId val="129596047"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="838169936"/>
+        <c:axId val="128722847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838156624"/>
+        <c:crossAx val="129596047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1608,7 +1636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="838156624"/>
+        <c:axId val="129596047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER OF MTACHES</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1714,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838169936"/>
+        <c:crossAx val="128722847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1824,15 +1852,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Coco</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Gauff (USA)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>: Winning Percentile Range</a:t>
+              <a:t>Coco Gauff (USA): Winning Percentile Range</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1926,10 +1946,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1948,15 +1968,18 @@
                 <c:pt idx="5">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$7</c:f>
+              <c:f>Stats!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.5</c:v>
                 </c:pt>
@@ -1975,13 +1998,16 @@
                 <c:pt idx="5">
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E03-4A74-853C-B4A292D94922}"/>
+              <c16:uniqueId val="{00000001-BFC2-4996-99B7-79F167B92D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1995,11 +2021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1053973904"/>
-        <c:axId val="1053980976"/>
+        <c:axId val="128725727"/>
+        <c:axId val="129587119"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1053973904"/>
+        <c:axId val="128725727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053980976"/>
+        <c:crossAx val="129587119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2105,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053980976"/>
+        <c:axId val="129587119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,7 +2237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053973904"/>
+        <c:crossAx val="128725727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3373,25 +3399,26 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55160879-050C-43EF-9A81-8ABC9DC42D37}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7EBB2DCA-3A9A-426D-B3F8-75FB36816139}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F55FAC2A-1FA9-4F19-A44D-A6B6357EB2B9}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{769D722F-678A-478F-9199-CF330BE26BD8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -3405,7 +3432,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50AB1D5-8C93-C610-E60B-C91ABA36F315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ADF7B-DA78-4C8F-8BD5-3EE1618874AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3432,13 +3459,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A276527-47EB-321F-936D-94CB41325415}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC51930-7F02-8FD3-5A18-BC220699BF94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,20 +3795,20 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3801,7 +3828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3821,7 +3848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +3862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3855,7 +3882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3869,7 +3896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3889,12 +3916,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3910,20 +3937,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3943,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3963,7 +3990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3977,7 +4004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -3997,7 +4024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4011,7 +4038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4025,7 +4052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4039,7 +4066,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4053,7 +4080,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4073,7 +4100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -4093,7 +4120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4113,7 +4140,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4127,7 +4154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4147,7 +4174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4167,7 +4194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4181,7 +4208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4195,7 +4222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -4243,7 +4270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -4263,7 +4290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4277,7 +4304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4291,7 +4318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4311,7 +4338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4325,7 +4352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4345,7 +4372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4359,7 +4386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4373,7 +4400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4387,7 +4414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4401,7 +4428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4415,7 +4442,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4429,7 +4456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4449,7 +4476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4497,7 +4524,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4511,7 +4538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4545,7 +4572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4559,7 +4586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4573,7 +4600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +4614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4601,7 +4628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4615,7 +4642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4629,7 +4656,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -4664,20 +4691,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4697,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4717,7 +4744,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4731,7 +4758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4751,7 +4778,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4765,7 +4792,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4779,7 +4806,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4793,7 +4820,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4813,7 +4840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4854,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4841,7 +4868,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4855,7 +4882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4875,7 +4902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4895,7 +4922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4915,7 +4942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -4929,7 +4956,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4949,7 +4976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -4963,7 +4990,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4983,7 +5010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -4997,7 +5024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5040,20 +5067,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -5093,7 +5120,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5107,7 +5134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -5127,7 +5154,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5141,7 +5168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5161,7 +5188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5175,7 +5202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -5195,7 +5222,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5209,7 +5236,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5223,7 +5250,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5237,7 +5264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5251,7 +5278,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5265,7 +5292,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -5285,7 +5312,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5299,7 +5326,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5313,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5374,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -5367,7 +5394,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5381,7 +5408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5395,7 +5422,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5409,7 +5436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -5429,7 +5456,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5449,7 +5476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5463,7 +5490,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5477,7 +5504,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5491,7 +5518,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5505,7 +5532,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5525,7 +5552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5539,7 +5566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5553,7 +5580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5567,7 +5594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5581,7 +5608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5601,7 +5628,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5615,7 +5642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5629,7 +5656,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5643,7 +5670,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5684,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -5677,7 +5704,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5691,7 +5718,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5711,7 +5738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5725,7 +5752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5739,7 +5766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -5773,7 +5800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5787,7 +5814,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5801,7 +5828,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5842,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5835,7 +5862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5849,7 +5876,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5869,7 +5896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5883,7 +5910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5903,7 +5930,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5932,20 +5959,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5965,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -5985,7 +6012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5999,7 +6026,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6019,7 +6046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6033,7 +6060,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6047,7 +6074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6061,7 +6088,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6081,7 +6108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -6101,7 +6128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -6121,7 +6148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6135,7 +6162,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6149,7 +6176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6163,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6183,7 +6210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6197,7 +6224,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6217,7 +6244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6231,7 +6258,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +6272,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -6265,7 +6292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -6285,7 +6312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6299,7 +6326,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6333,7 +6360,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6347,7 +6374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6381,7 +6408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6395,7 +6422,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6409,7 +6436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6423,7 +6450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6437,7 +6464,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +6478,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6465,7 +6492,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>306</v>
       </c>
@@ -6485,7 +6512,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6499,7 +6526,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6513,7 +6540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6527,7 +6554,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6547,7 +6574,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6561,7 +6588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6575,7 +6602,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6595,7 +6622,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6623,7 +6650,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>292</v>
       </c>
@@ -6643,7 +6670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6657,7 +6684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6671,7 +6698,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6685,7 +6712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6705,7 +6732,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6725,7 +6752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6739,7 +6766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6753,7 +6780,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6767,7 +6794,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6781,7 +6808,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>319</v>
       </c>
@@ -6801,7 +6828,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6815,7 +6842,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6829,7 +6856,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>322</v>
       </c>
@@ -6849,7 +6876,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6863,7 +6890,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6877,7 +6904,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -6897,7 +6924,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>325</v>
       </c>
@@ -6911,7 +6938,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>325</v>
       </c>
@@ -6925,7 +6952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -6956,21 +6983,21 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +7017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7010,7 +7037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7024,7 +7051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7038,7 +7065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7052,7 +7079,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7066,7 +7093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7086,7 +7113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7100,7 +7127,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7114,7 +7141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7128,7 +7155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -7148,7 +7175,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7162,7 +7189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -7182,7 +7209,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7196,7 +7223,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7210,7 +7237,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7224,7 +7251,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7244,7 +7271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7258,7 +7285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7286,7 +7313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7306,7 +7333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7320,7 +7347,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -7337,7 +7364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -7357,7 +7384,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7371,7 +7398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -7391,7 +7418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7405,7 +7432,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7425,7 +7452,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7439,7 +7466,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7459,7 +7486,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7473,7 +7500,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7487,7 +7514,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7501,7 +7528,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7515,7 +7542,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>306</v>
       </c>
@@ -7535,7 +7562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -7549,7 +7576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>280</v>
       </c>
@@ -7569,7 +7596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7583,7 +7610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7611,7 +7638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7631,7 +7658,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -7651,7 +7678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7665,7 +7692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7679,7 +7706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7693,7 +7720,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -7713,7 +7740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7727,7 +7754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7741,7 +7768,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7761,7 +7788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7775,7 +7802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7789,7 +7816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7803,7 +7830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7817,7 +7844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7837,7 +7864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7851,7 +7878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7892,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7879,7 +7906,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7893,7 +7920,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -7921,7 +7948,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -7941,7 +7968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -7955,7 +7982,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -7969,7 +7996,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -7983,7 +8010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -7997,7 +8024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>324</v>
       </c>
@@ -8017,7 +8044,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>325</v>
       </c>
@@ -8031,7 +8058,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>325</v>
       </c>
@@ -8045,7 +8072,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8066,27 +8093,151 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27A06EE-EDCE-4073-921E-5846AEA3F4F0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8106,7 +8257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8123,11 +8274,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8148,7 +8299,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8169,7 +8320,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8190,7 +8341,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8211,7 +8362,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8232,58 +8383,79 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <f>SUM(B2:B7)</f>
-        <v>84</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(C2:C7)</f>
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
-        <v>169</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
+      <c r="B9" s="2">
+        <f>SUM(B2:B8)</f>
+        <v>85</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(C2:C8)</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(D2:D8)</f>
+        <v>174</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(E2:E8)</f>
         <v>80</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.52662721893491127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="F9" s="6">
+        <f>(D9-E9)/D9</f>
+        <v>0.54022988505747127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2">
-        <f>AVERAGE(B2:B7)</f>
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <f>AVERAGE(C2:C7)</f>
+      <c r="B10" s="2">
+        <f>AVERAGE(B2:B8)</f>
+        <v>12.142857142857142</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE(C2:C8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="2">
-        <f>AVERAGE(D2:D7)</f>
-        <v>28.166666666666668</v>
-      </c>
-      <c r="E9" s="2">
-        <f>AVERAGE(E2:E7)</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.52662721893491127</v>
+      <c r="D10" s="2">
+        <f>AVERAGE(D2:D8)</f>
+        <v>24.857142857142858</v>
+      </c>
+      <c r="E10" s="2">
+        <f>AVERAGE(E2:E8)</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="F10" s="6">
+        <f>(D10-E10)/D10</f>
+        <v>0.54022988505747127</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10563" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C424945B-E5DC-41CC-BCA5-AE2A363FBB4C}"/>
+  <xr:revisionPtr revIDLastSave="10591" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D6075C1-1727-4715-901D-965FC8E6B133}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="18720" yWindow="0" windowWidth="14385" windowHeight="15285" firstSheet="7" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="373">
   <si>
     <t>ROUND</t>
   </si>
@@ -1143,6 +1143,24 @@
   </si>
   <si>
     <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-7(3) 6-2</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>Caroline Dolehide (USA)</t>
+  </si>
+  <si>
+    <t>Alycia Parks (USA)</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1433,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +1523,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,7 +2017,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,7 +3420,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7EBB2DCA-3A9A-426D-B3F8-75FB36816139}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3414,7 +3432,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{769D722F-678A-478F-9199-CF330BE26BD8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3426,7 +3444,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3459,7 +3477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827568"/>
+    <xdr:ext cx="8581931" cy="5837599"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3493,9 +3511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3533,7 +3551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3639,7 +3657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3781,7 +3799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3794,8 +3812,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,8 +3954,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,8 +4708,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5066,8 +5084,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,8 +5976,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,8 +7000,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8097,20 +8115,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" activeCellId="1" sqref="E2:E6 E8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8208,6 +8226,96 @@
       </c>
       <c r="F6" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8332,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,20 +8496,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8410,7 +8518,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8418,15 +8526,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54022988505747127</v>
+        <v>0.54748603351955305</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8435,7 +8543,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.142857142857142</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8443,15 +8551,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>24.857142857142858</v>
+        <v>25.571428571428573</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>11.428571428571429</v>
+        <v>11.571428571428571</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54022988505747127</v>
+        <v>0.54748603351955316</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10591" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D6075C1-1727-4715-901D-965FC8E6B133}"/>
+  <xr:revisionPtr revIDLastSave="10600" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C1EC6C0-DB7D-48C6-954C-F421EDCB952A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18720" yWindow="0" windowWidth="14385" windowHeight="15285" firstSheet="7" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="374">
   <si>
     <t>ROUND</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t>Magdalena Fręch (POLAND)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1526,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2020,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,9 +3514,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3551,7 +3554,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3657,7 +3660,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3799,7 +3802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7000,8 +7003,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7175,7 +7178,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -8115,7 +8118,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" activeCellId="1" sqref="E2:E6 E8:E12"/>
@@ -8316,6 +8319,26 @@
       </c>
       <c r="F13" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8496,7 +8519,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8505,11 +8528,11 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8518,7 +8541,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8530,11 +8553,11 @@
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54748603351955305</v>
+        <v>0.54189944134078216</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8543,7 +8566,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.285714285714286</v>
+        <v>12.428571428571429</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8555,11 +8578,11 @@
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54748603351955316</v>
+        <v>0.54189944134078216</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10600" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C1EC6C0-DB7D-48C6-954C-F421EDCB952A}"/>
+  <xr:revisionPtr revIDLastSave="10616" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66624C52-E596-4C88-95A0-C535B59F758F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="378">
   <si>
     <t>ROUND</t>
   </si>
@@ -1164,6 +1164,18 @@
   </si>
   <si>
     <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>6-1 7-5</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1448,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1538,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +2032,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5979,8 +5991,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,7 +7015,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8118,15 +8130,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="E2:E6 E8:E12"/>
+      <selection activeCell="E17" activeCellId="2" sqref="E2:E6 E8:E12 E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -8339,6 +8351,54 @@
       </c>
       <c r="F15" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -8519,20 +8579,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8541,7 +8601,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8549,15 +8609,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54189944134078216</v>
+        <v>0.54143646408839774</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,7 +8626,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.428571428571429</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8574,15 +8634,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>25.571428571428573</v>
+        <v>25.857142857142858</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>11.714285714285714</v>
+        <v>11.857142857142858</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54189944134078216</v>
+        <v>0.54143646408839774</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10616" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66624C52-E596-4C88-95A0-C535B59F758F}"/>
+  <xr:revisionPtr revIDLastSave="10619" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4154AC-D64C-474B-9746-8199EAA6D3BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9165" yWindow="3750" windowWidth="19305" windowHeight="17130" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>ITF MIDLAND ($100,000)</t>
   </si>
   <si>
-    <t>Ashley Kratzer  (USA)</t>
-  </si>
-  <si>
     <t>Rebecca Peterson (SWEDEN)</t>
   </si>
   <si>
@@ -1176,6 +1173,9 @@
   </si>
   <si>
     <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Ashley Kratzer (USA)</t>
   </si>
 </sst>
 </file>
@@ -3526,9 +3526,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3566,7 +3566,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3672,7 +3672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3814,7 +3814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3969,8 +3969,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4028,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4048,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -4062,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4076,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4090,7 +4090,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4104,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -4124,7 +4124,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -4144,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -4164,7 +4164,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -4198,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -4218,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4232,7 +4232,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -4246,7 +4246,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -4260,7 +4260,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -4274,7 +4274,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -4294,7 +4294,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -4314,7 +4314,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -4328,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4362,7 +4362,7 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -4376,7 +4376,7 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -4396,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -4410,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -4424,7 +4424,7 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -4438,7 +4438,7 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -4452,7 +4452,7 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -4466,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -4480,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -4500,7 +4500,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -4514,7 +4514,7 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -4528,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -4548,7 +4548,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -4576,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -4596,7 +4596,7 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -4610,7 +4610,7 @@
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -4638,13 +4638,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,13 +4652,13 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>140</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -4686,12 +4686,12 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -4700,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -4768,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4782,13 +4782,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4802,13 +4802,13 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4830,13 +4830,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,18 +4844,18 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -4864,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -4878,13 +4878,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4892,13 +4892,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -4926,7 +4926,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -4946,13 +4946,13 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,7 +4966,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -4980,13 +4980,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5014,13 +5014,13 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5034,7 +5034,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -5048,7 +5048,7 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5076,13 +5076,13 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5099,8 +5099,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5144,13 +5144,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5158,18 +5158,18 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5178,13 +5178,13 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5192,13 +5192,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -5226,7 +5226,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -5246,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,13 +5260,13 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5274,13 +5274,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5288,13 +5288,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,13 +5302,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,18 +5316,18 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -5336,13 +5336,13 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,13 +5350,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -5398,18 +5398,18 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -5418,13 +5418,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,13 +5432,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5446,13 +5446,13 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5460,7 +5460,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -5480,13 +5480,13 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,13 +5500,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5514,13 +5514,13 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5528,13 +5528,13 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,13 +5542,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5556,18 +5556,18 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -5576,13 +5576,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5590,7 +5590,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -5604,7 +5604,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -5624,7 +5624,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5632,13 +5632,13 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,13 +5652,13 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5666,13 +5666,13 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5680,13 +5680,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5694,13 +5694,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5708,18 +5708,18 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -5728,13 +5728,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5742,13 +5742,13 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5762,7 +5762,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -5776,7 +5776,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -5790,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -5804,7 +5804,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -5824,13 +5824,13 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,13 +5838,13 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5852,13 +5852,13 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5866,13 +5866,13 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5886,7 +5886,7 @@
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -5900,13 +5900,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5920,13 +5920,13 @@
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5934,7 +5934,7 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -5954,13 +5954,13 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5968,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -5991,8 +5991,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6036,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -6050,18 +6050,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6084,13 +6084,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -6112,13 +6112,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6152,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -6172,7 +6172,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6186,13 +6186,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6214,7 +6214,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6234,13 +6234,13 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,13 +6248,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6282,13 +6282,13 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6296,18 +6296,18 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -6336,13 +6336,13 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,13 +6350,13 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -6384,13 +6384,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6412,7 +6412,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -6432,13 +6432,13 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,13 +6446,13 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6474,7 +6474,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -6488,13 +6488,13 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,13 +6502,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6516,18 +6516,18 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -6536,13 +6536,13 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,13 +6550,13 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6578,13 +6578,13 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,13 +6598,13 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6626,18 +6626,18 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6646,13 +6646,13 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6660,7 +6660,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -6674,18 +6674,18 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -6694,7 +6694,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -6708,13 +6708,13 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6722,13 +6722,13 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,13 +6736,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6756,13 +6756,13 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -6790,13 +6790,13 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,13 +6804,13 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6818,13 +6818,13 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6832,18 +6832,18 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -6852,7 +6852,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -6866,13 +6866,13 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6880,18 +6880,18 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -6900,13 +6900,13 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6914,13 +6914,13 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6928,24 +6928,24 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
         <v>67</v>
@@ -6954,29 +6954,29 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -6999,7 +6999,7 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -7015,8 +7015,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,7 +7061,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7075,7 +7075,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7089,7 +7089,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -7103,13 +7103,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -7143,7 +7143,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7151,13 +7151,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>336</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -7199,13 +7199,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7213,18 +7213,18 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -7233,13 +7233,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7247,13 +7247,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7261,13 +7261,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7275,13 +7275,13 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7309,7 +7309,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7323,7 +7323,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -7337,7 +7337,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -7357,7 +7357,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7371,24 +7371,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -7408,13 +7408,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -7442,7 +7442,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -7456,13 +7456,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7476,13 +7476,13 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7490,13 +7490,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7510,13 +7510,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,13 +7524,13 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7538,13 +7538,13 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7552,13 +7552,13 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7566,24 +7566,24 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>55</v>
@@ -7597,10 +7597,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -7620,7 +7620,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -7634,7 +7634,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -7648,7 +7648,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7662,7 +7662,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -7682,18 +7682,18 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -7702,13 +7702,13 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -7730,7 +7730,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
@@ -7744,18 +7744,18 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7764,7 +7764,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -7778,13 +7778,13 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7792,13 +7792,13 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -7826,7 +7826,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -7840,7 +7840,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -7854,13 +7854,13 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7868,7 +7868,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -7888,13 +7888,13 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7902,7 +7902,7 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -7916,13 +7916,13 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,13 +7930,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7950,7 +7950,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
@@ -7972,18 +7972,18 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -7992,7 +7992,7 @@
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -8006,13 +8006,13 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -8020,13 +8020,13 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -8034,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -8048,7 +8048,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
@@ -8059,50 +8059,50 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8110,7 +8110,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>14</v>
@@ -8178,7 +8178,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -8192,13 +8192,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8220,7 +8220,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -8234,13 +8234,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8254,13 +8254,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8268,13 +8268,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8282,13 +8282,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8296,7 +8296,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8310,13 +8310,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8324,18 +8324,18 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -8364,13 +8364,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8378,13 +8378,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8392,13 +8392,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8414,7 +8414,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10619" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4154AC-D64C-474B-9746-8199EAA6D3BA}"/>
+  <xr:revisionPtr revIDLastSave="10641" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D141472C-74F4-4D57-8622-6FA9A7ED9E25}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="3750" windowWidth="19305" windowHeight="17130" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="384">
   <si>
     <t>ROUND</t>
   </si>
@@ -1176,6 +1176,24 @@
   </si>
   <si>
     <t>Ashley Kratzer (USA)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(5) 6-2</t>
+  </si>
+  <si>
+    <t>6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 7-6(4)</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Yuan Yue (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1466,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,7 +1556,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7015,7 +7033,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
@@ -8130,10 +8148,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="2" sqref="E2:E6 E8:E12 E17:E18"/>
+      <selection activeCell="E21" activeCellId="3" sqref="E2:E6 E8:E12 E17:E18 E21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8401,6 +8419,82 @@
         <v>375</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -8414,7 +8508,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -8579,16 +8673,16 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
@@ -8601,7 +8695,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8609,15 +8703,15 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54143646408839774</v>
+        <v>0.54594594594594592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8626,7 +8720,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.571428571428571</v>
+        <v>12.714285714285714</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8634,15 +8728,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>25.857142857142858</v>
+        <v>26.428571428571427</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>11.857142857142858</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54143646408839774</v>
+        <v>0.54594594594594592</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10641" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D141472C-74F4-4D57-8622-6FA9A7ED9E25}"/>
+  <xr:revisionPtr revIDLastSave="10654" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05DB271-3EF4-45B3-AEE9-0DFB68CB9C58}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="387">
   <si>
     <t>ROUND</t>
   </si>
@@ -1194,6 +1194,15 @@
   </si>
   <si>
     <t>Yuan Yue (CHINA)</t>
+  </si>
+  <si>
+    <t>6-3 1-6 6-2</t>
+  </si>
+  <si>
+    <t>Nadia Podoroska (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Océane Dodin (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1475,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,7 +1565,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,7 +2059,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3849,17 +3858,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3899,7 +3908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3913,7 +3922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3947,7 +3956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3967,12 +3976,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3991,17 +4000,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4117,7 +4126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4151,7 +4160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4191,7 +4200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4287,7 +4296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4341,7 +4350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4355,7 +4364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4389,7 +4398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4493,7 +4502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4507,7 +4516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4527,7 +4536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4541,7 +4550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4589,7 +4598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4603,7 +4612,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4623,7 +4632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4693,7 +4702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4745,17 +4754,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4775,7 +4784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4795,7 +4804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4843,7 +4852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4871,7 +4880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4891,7 +4900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4919,7 +4928,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4953,7 +4962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4973,7 +4982,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +5016,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5121,17 +5130,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5151,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5185,7 +5194,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5205,7 +5214,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5239,7 +5248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5273,7 +5282,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5287,7 +5296,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5315,7 +5324,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5329,7 +5338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5405,7 +5414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5425,7 +5434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5445,7 +5454,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5468,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5482,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5527,7 +5536,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5541,7 +5550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5631,7 +5640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5659,7 +5668,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5679,7 +5688,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5693,7 +5702,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5721,7 +5730,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5755,7 +5764,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5789,7 +5798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5865,7 +5874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5927,7 +5936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5947,7 +5956,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5961,7 +5970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6013,17 +6022,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6043,7 +6052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6063,7 +6072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6077,7 +6086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6159,7 +6168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6241,7 +6250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6295,7 +6304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6323,7 +6332,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6343,7 +6352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6377,7 +6386,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6391,7 +6400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6411,7 +6420,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6439,7 +6448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6459,7 +6468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6473,7 +6482,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6487,7 +6496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6501,7 +6510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6515,7 +6524,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6529,7 +6538,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6563,7 +6572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6577,7 +6586,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6591,7 +6600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6605,7 +6614,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6625,7 +6634,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6653,7 +6662,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6673,7 +6682,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6701,7 +6710,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6721,7 +6730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +6758,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6763,7 +6772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6783,7 +6792,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6817,7 +6826,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6831,7 +6840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +6854,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6879,7 +6888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6893,7 +6902,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6927,7 +6936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6941,7 +6950,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6955,7 +6964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -6975,7 +6984,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -6989,7 +6998,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7003,7 +7012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7037,18 +7046,18 @@
       <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7068,7 +7077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7088,7 +7097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7102,7 +7111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7116,7 +7125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7130,7 +7139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7144,7 +7153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7164,7 +7173,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7178,7 +7187,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7192,7 +7201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7206,7 +7215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7226,7 +7235,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7240,7 +7249,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7260,7 +7269,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7274,7 +7283,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7288,7 +7297,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7302,7 +7311,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7322,7 +7331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7336,7 +7345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7350,7 +7359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7364,7 +7373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7384,7 +7393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7398,7 +7407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7415,7 +7424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7435,7 +7444,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7469,7 +7478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7483,7 +7492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7503,7 +7512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7517,7 +7526,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7537,7 +7546,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7565,7 +7574,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7579,7 +7588,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7593,7 +7602,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7613,7 +7622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7627,7 +7636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7647,7 +7656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7675,7 +7684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7709,7 +7718,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7729,7 +7738,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7743,7 +7752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7757,7 +7766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7771,7 +7780,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7791,7 +7800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7805,7 +7814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7819,7 +7828,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7839,7 +7848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7853,7 +7862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7881,7 +7890,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7895,7 +7904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7915,7 +7924,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7929,7 +7938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7943,7 +7952,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7957,7 +7966,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7971,7 +7980,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -7999,7 +8008,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8019,7 +8028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8033,7 +8042,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8047,7 +8056,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8061,7 +8070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8075,7 +8084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8095,7 +8104,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8109,7 +8118,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8123,7 +8132,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8148,24 +8157,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" activeCellId="3" sqref="E2:E6 E8:E12 E17:E18 E21:E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" activeCellId="4" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8185,7 +8194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8205,7 +8214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8219,7 +8228,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8233,7 +8242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8247,7 +8256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8261,7 +8270,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8281,7 +8290,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8309,7 +8318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8323,7 +8332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8337,7 +8346,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8351,7 +8360,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8371,7 +8380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8391,7 +8400,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8405,7 +8414,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8419,7 +8428,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8439,7 +8448,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8453,7 +8462,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8467,7 +8476,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8481,7 +8490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8493,6 +8502,54 @@
       </c>
       <c r="F25" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>385</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8512,17 +8569,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8542,7 +8599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8563,7 +8620,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8584,7 +8641,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8605,7 +8662,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8626,7 +8683,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8647,7 +8704,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8668,34 +8725,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8703,24 +8760,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54594594594594592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.714285714285714</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8728,15 +8785,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>26.428571428571427</v>
+        <v>26.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54594594594594592</v>
+        <v>0.54545454545454553</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10654" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05DB271-3EF4-45B3-AEE9-0DFB68CB9C58}"/>
+  <xr:revisionPtr revIDLastSave="10667" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2EC268-1401-4F02-B7DF-7FD2A3B5D8CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="391">
   <si>
     <t>ROUND</t>
   </si>
@@ -1203,6 +1203,18 @@
   </si>
   <si>
     <t>Océane Dodin (FRANCE)</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk</t>
+  </si>
+  <si>
+    <t>Sachia Vickery (USA)</t>
+  </si>
+  <si>
+    <t>6-3 4-6 7-5</t>
+  </si>
+  <si>
+    <t>3-6 6-4 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1487,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1577,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,7 +2071,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72222222222222221</c:v>
+                  <c:v>0.68421052631578949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,17 +3870,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3976,12 +3988,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4000,17 +4012,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4030,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4050,7 +4062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4084,7 +4096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4112,7 +4124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4126,7 +4138,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4140,7 +4152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4160,7 +4172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4180,7 +4192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4200,7 +4212,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4234,7 +4246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4268,7 +4280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4310,7 +4322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4330,7 +4342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4350,7 +4362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4364,7 +4376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4412,7 +4424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4446,7 +4458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4460,7 +4472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4502,7 +4514,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4536,7 +4548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4550,7 +4562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4564,7 +4576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4632,7 +4644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4646,7 +4658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +4686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4716,7 +4728,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4754,17 +4766,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4784,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4804,7 +4816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4852,7 +4864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4866,7 +4878,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4900,7 +4912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4928,7 +4940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4942,7 +4954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4962,7 +4974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4982,7 +4994,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5016,7 +5028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5036,7 +5048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5050,7 +5062,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5084,7 +5096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5130,17 +5142,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5160,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5194,7 +5206,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5214,7 +5226,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5228,7 +5240,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5262,7 +5274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5310,7 +5322,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5324,7 +5336,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5338,7 +5350,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5352,7 +5364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5372,7 +5384,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5386,7 +5398,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5400,7 +5412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5454,7 +5466,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +5480,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5496,7 +5508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5516,7 +5528,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5536,7 +5548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5550,7 +5562,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5578,7 +5590,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5612,7 +5624,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5626,7 +5638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5640,7 +5652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5668,7 +5680,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5688,7 +5700,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5730,7 +5742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5744,7 +5756,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5764,7 +5776,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5778,7 +5790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5798,7 +5810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5826,7 +5838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5840,7 +5852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5860,7 +5872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5874,7 +5886,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5888,7 +5900,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5902,7 +5914,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5936,7 +5948,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5956,7 +5968,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5970,7 +5982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6022,17 +6034,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6086,7 +6098,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6106,7 +6118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6120,7 +6132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6134,7 +6146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6148,7 +6160,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6188,7 +6200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6222,7 +6234,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6236,7 +6248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6250,7 +6262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6270,7 +6282,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6284,7 +6296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6304,7 +6316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6332,7 +6344,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6372,7 +6384,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6386,7 +6398,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6420,7 +6432,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6434,7 +6446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6448,7 +6460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6468,7 +6480,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6482,7 +6494,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6496,7 +6508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6510,7 +6522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6524,7 +6536,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6538,7 +6550,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6572,7 +6584,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6586,7 +6598,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6600,7 +6612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6614,7 +6626,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6648,7 +6660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6662,7 +6674,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6682,7 +6694,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6710,7 +6722,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6730,7 +6742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6744,7 +6756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6758,7 +6770,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6772,7 +6784,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6792,7 +6804,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6826,7 +6838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6840,7 +6852,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6854,7 +6866,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6868,7 +6880,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6888,7 +6900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6902,7 +6914,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6916,7 +6928,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6936,7 +6948,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6964,7 +6976,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -6998,7 +7010,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7012,7 +7024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7046,18 +7058,18 @@
       <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7077,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7097,7 +7109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7125,7 +7137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7139,7 +7151,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7153,7 +7165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7201,7 +7213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7235,7 +7247,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7249,7 +7261,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7269,7 +7281,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7283,7 +7295,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7297,7 +7309,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7311,7 +7323,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7331,7 +7343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7345,7 +7357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7359,7 +7371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7373,7 +7385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7424,7 +7436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7444,7 +7456,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7458,7 +7470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7478,7 +7490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7492,7 +7504,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7526,7 +7538,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7560,7 +7572,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7574,7 +7586,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7588,7 +7600,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7602,7 +7614,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7622,7 +7634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7636,7 +7648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7656,7 +7668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7670,7 +7682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7684,7 +7696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7718,7 +7730,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7752,7 +7764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7766,7 +7778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7780,7 +7792,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7800,7 +7812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7814,7 +7826,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7828,7 +7840,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7862,7 +7874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7890,7 +7902,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7904,7 +7916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7924,7 +7936,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7952,7 +7964,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7966,7 +7978,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7980,7 +7992,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -7994,7 +8006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8008,7 +8020,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8028,7 +8040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8042,7 +8054,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8056,7 +8068,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8070,7 +8082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8084,7 +8096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8104,7 +8116,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8118,7 +8130,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8132,7 +8144,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8157,24 +8169,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="4" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" activeCellId="5" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8194,7 +8206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8214,7 +8226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8228,7 +8240,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8242,7 +8254,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8256,7 +8268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8270,7 +8282,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8290,7 +8302,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8304,7 +8316,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8332,7 +8344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8346,7 +8358,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8360,7 +8372,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8380,7 +8392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8400,7 +8412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8414,7 +8426,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8428,7 +8440,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8448,7 +8460,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8462,7 +8474,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8476,7 +8488,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8490,7 +8502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8504,7 +8516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8524,7 +8536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8538,7 +8550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8550,6 +8562,40 @@
       </c>
       <c r="F29" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -8569,17 +8615,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8599,7 +8645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8620,7 +8666,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8641,7 +8687,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8662,7 +8708,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8683,7 +8729,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8704,7 +8750,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8725,34 +8771,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8760,24 +8806,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.54255319148936165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.857142857142858</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8785,15 +8831,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>26.714285714285715</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12.142857142857142</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54545454545454553</v>
+        <v>0.54255319148936165</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10667" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2EC268-1401-4F02-B7DF-7FD2A3B5D8CC}"/>
+  <xr:revisionPtr revIDLastSave="10684" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{476C91B4-191B-40A7-92C7-835B3ADB6538}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="393">
   <si>
     <t>ROUND</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>Océane Dodin (FRANCE)</t>
   </si>
   <si>
-    <t>Marta Kostyuk</t>
-  </si>
-  <si>
     <t>Sachia Vickery (USA)</t>
   </si>
   <si>
@@ -1215,6 +1212,15 @@
   </si>
   <si>
     <t>3-6 6-4 7-6(6)</t>
+  </si>
+  <si>
+    <t>Arantxa Rus (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>6-0 6-0</t>
+  </si>
+  <si>
+    <t>Dayana Yastremska (UKRAINE)</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1493,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,7 +1583,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,7 +2077,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68421052631578949</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,17 +3876,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3988,12 +3994,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4012,17 +4018,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4728,7 +4734,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4766,17 +4772,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4796,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4816,7 +4822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4864,7 +4870,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4912,7 +4918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5014,7 +5020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5048,7 +5054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5142,17 +5148,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5226,7 +5232,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5508,7 +5514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5590,7 +5596,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5624,7 +5630,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5728,7 +5734,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5776,7 +5782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5900,7 +5906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6002,7 +6008,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6034,17 +6040,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6118,7 +6124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6262,7 +6268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6364,7 +6370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6384,7 +6390,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6446,7 +6452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6584,7 +6590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6626,7 +6632,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6646,7 +6652,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6660,7 +6666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6708,7 +6714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6742,7 +6748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6784,7 +6790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6838,7 +6844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6880,7 +6886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7054,22 +7060,22 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C47"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7109,7 +7115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7137,7 +7143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7185,7 +7191,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7213,7 +7219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7405,7 +7411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7419,7 +7425,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7490,7 +7496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7538,7 +7544,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +7620,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7648,7 +7654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7682,7 +7688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7730,7 +7736,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7812,7 +7818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7826,7 +7832,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7874,7 +7880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7888,7 +7894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8054,7 +8060,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8068,7 +8074,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8130,7 +8136,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8144,7 +8150,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8169,24 +8175,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" activeCellId="5" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8206,7 +8212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8240,7 +8246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8268,7 +8274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8302,7 +8308,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8316,7 +8322,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8344,7 +8350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8358,7 +8364,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8372,7 +8378,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8502,7 +8508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8536,7 +8542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8550,7 +8556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -8575,27 +8581,75 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
         <v>388</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>387</v>
+        <v>294</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
         <v>390</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -8615,17 +8669,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8645,7 +8699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8666,7 +8720,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8687,7 +8741,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8708,7 +8762,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8729,7 +8783,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8750,7 +8804,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8771,34 +8825,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.68421052631578949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8806,24 +8860,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54255319148936165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54210526315789476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13</v>
+        <v>13.142857142857142</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8831,15 +8885,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>26.857142857142858</v>
+        <v>27.142857142857142</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12.285714285714286</v>
+        <v>12.428571428571429</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54255319148936165</v>
+        <v>0.54210526315789476</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10684" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{476C91B4-191B-40A7-92C7-835B3ADB6538}"/>
+  <xr:revisionPtr revIDLastSave="10707" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE8F12B-3B96-490E-9FA0-E9263DEBC34A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="398">
   <si>
     <t>ROUND</t>
   </si>
@@ -1221,6 +1221,21 @@
   </si>
   <si>
     <t>Dayana Yastremska (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Jaqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>6-1 0-6 6-3</t>
+  </si>
+  <si>
+    <t>5-7 6-4 6-1</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1508,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,7 +1598,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +2092,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,17 +3891,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3906,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3926,7 +3941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3974,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3994,12 +4009,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4018,17 +4033,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4048,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4068,7 +4083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4082,7 +4097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4102,7 +4117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4130,7 +4145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4144,7 +4159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4158,7 +4173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4178,7 +4193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4232,7 +4247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4252,7 +4267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4286,7 +4301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4314,7 +4329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4328,7 +4343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4348,7 +4363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4368,7 +4383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4382,7 +4397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4396,7 +4411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4416,7 +4431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4430,7 +4445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4450,7 +4465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4464,7 +4479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4478,7 +4493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4492,7 +4507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4506,7 +4521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4534,7 +4549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4568,7 +4583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4616,7 +4631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4630,7 +4645,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4664,7 +4679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4678,7 +4693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4692,7 +4707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4706,7 +4721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4720,7 +4735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4734,7 +4749,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4772,17 +4787,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4802,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4822,7 +4837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4836,7 +4851,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4856,7 +4871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4870,7 +4885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4884,7 +4899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4918,7 +4933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4932,7 +4947,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4946,7 +4961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4960,7 +4975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5000,7 +5015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5020,7 +5035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5068,7 +5083,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5088,7 +5103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5102,7 +5117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5148,17 +5163,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5178,7 +5193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5198,7 +5213,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5232,7 +5247,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5246,7 +5261,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5280,7 +5295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5300,7 +5315,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5329,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5328,7 +5343,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5356,7 +5371,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5370,7 +5385,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5404,7 +5419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5418,7 +5433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5432,7 +5447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5452,7 +5467,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5472,7 +5487,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5486,7 +5501,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +5515,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5514,7 +5529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5534,7 +5549,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5554,7 +5569,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5568,7 +5583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5582,7 +5597,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5596,7 +5611,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5630,7 +5645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5644,7 +5659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5658,7 +5673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5672,7 +5687,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5706,7 +5721,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5720,7 +5735,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5748,7 +5763,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5762,7 +5777,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5796,7 +5811,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5816,7 +5831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5830,7 +5845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5844,7 +5859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5858,7 +5873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5878,7 +5893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5892,7 +5907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5906,7 +5921,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5920,7 +5935,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5940,7 +5955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5954,7 +5969,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5974,7 +5989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -5988,7 +6003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6008,7 +6023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6040,17 +6055,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6070,7 +6085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6104,7 +6119,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6138,7 +6153,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6152,7 +6167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6166,7 +6181,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6186,7 +6201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6206,7 +6221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6226,7 +6241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6255,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6254,7 +6269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6288,7 +6303,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6302,7 +6317,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6322,7 +6337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6336,7 +6351,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6350,7 +6365,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6370,7 +6385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6390,7 +6405,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6419,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6438,7 +6453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6452,7 +6467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6466,7 +6481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6486,7 +6501,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6500,7 +6515,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6514,7 +6529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6528,7 +6543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +6557,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6556,7 +6571,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6570,7 +6585,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6604,7 +6619,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6618,7 +6633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6632,7 +6647,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6652,7 +6667,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6680,7 +6695,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6700,7 +6715,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6714,7 +6729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6728,7 +6743,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6748,7 +6763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6762,7 +6777,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6776,7 +6791,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6790,7 +6805,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6810,7 +6825,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6830,7 +6845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6844,7 +6859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6858,7 +6873,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6872,7 +6887,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6886,7 +6901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6906,7 +6921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6920,7 +6935,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6934,7 +6949,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6954,7 +6969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6968,7 +6983,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6982,7 +6997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -7002,7 +7017,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -7016,7 +7031,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7030,7 +7045,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7061,21 +7076,21 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7095,7 +7110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7115,7 +7130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7129,7 +7144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7143,7 +7158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7157,7 +7172,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7171,7 +7186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7191,7 +7206,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7219,7 +7234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7233,7 +7248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7253,7 +7268,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7267,7 +7282,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7287,7 +7302,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7301,7 +7316,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7315,7 +7330,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7329,7 +7344,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7363,7 +7378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7377,7 +7392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7391,7 +7406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7411,7 +7426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7425,7 +7440,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7442,7 +7457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7462,7 +7477,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7476,7 +7491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7496,7 +7511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7510,7 +7525,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7530,7 +7545,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7544,7 +7559,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7578,7 +7593,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7592,7 +7607,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7606,7 +7621,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7620,7 +7635,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7654,7 +7669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7674,7 +7689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7688,7 +7703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7702,7 +7717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7716,7 +7731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7736,7 +7751,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7770,7 +7785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7784,7 +7799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7798,7 +7813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7818,7 +7833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7832,7 +7847,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +7861,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7866,7 +7881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7880,7 +7895,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7894,7 +7909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7908,7 +7923,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7922,7 +7937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7942,7 +7957,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7956,7 +7971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7970,7 +7985,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7984,7 +7999,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -7998,7 +8013,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -8012,7 +8027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8026,7 +8041,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8046,7 +8061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8060,7 +8075,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8074,7 +8089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8088,7 +8103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8102,7 +8117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8122,7 +8137,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8136,7 +8151,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8150,7 +8165,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8175,24 +8190,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" activeCellId="7" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31 E34:E35 E38:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8212,7 +8227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8232,7 +8247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8246,7 +8261,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8260,7 +8275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8274,7 +8289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8288,7 +8303,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8308,7 +8323,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8322,7 +8337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8336,7 +8351,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8350,7 +8365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8364,7 +8379,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8378,7 +8393,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8398,7 +8413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8418,7 +8433,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8432,7 +8447,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8446,7 +8461,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8466,7 +8481,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8480,7 +8495,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8494,7 +8509,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8508,7 +8523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8522,7 +8537,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8542,7 +8557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8556,7 +8571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8570,7 +8585,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -8590,7 +8605,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8604,7 +8619,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -8624,7 +8639,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -8638,7 +8653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8650,6 +8665,82 @@
       </c>
       <c r="F36" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>393</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8669,17 +8760,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8699,7 +8790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8720,7 +8811,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8741,7 +8832,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8762,7 +8853,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8783,7 +8874,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8804,7 +8895,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8825,34 +8916,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8860,24 +8951,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54210526315789476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.54639175257731953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.142857142857142</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8885,15 +8976,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>27.142857142857142</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12.428571428571429</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54210526315789476</v>
+        <v>0.54639175257731964</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10707" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE8F12B-3B96-490E-9FA0-E9263DEBC34A}"/>
+  <xr:revisionPtr revIDLastSave="10730" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8D5EFC-C9B4-4510-9707-5DAA0E0A8DFC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="401">
   <si>
     <t>ROUND</t>
   </si>
@@ -1236,6 +1236,15 @@
   </si>
   <si>
     <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Julia Avdeeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-2 6-3</t>
+  </si>
+  <si>
+    <t>Tamara Zidanšek (SLOVENIA)</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1517,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,7 +1607,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,7 +2101,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,10 +3590,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3891,17 +3896,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3921,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +3994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4009,12 +4014,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4033,17 +4038,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4083,7 +4088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4117,7 +4122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4173,7 +4178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4193,7 +4198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4233,7 +4238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4267,7 +4272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4287,7 +4292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4301,7 +4306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4329,7 +4334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4363,7 +4368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4445,7 +4450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4479,7 +4484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4493,7 +4498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4583,7 +4588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4617,7 +4622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4645,7 +4650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4665,7 +4670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4679,7 +4684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4693,7 +4698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4787,17 +4792,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4975,7 +4980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5035,7 +5040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5131,7 +5136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5163,17 +5168,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5227,7 +5232,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5261,7 +5266,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5281,7 +5286,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5315,7 +5320,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5329,7 +5334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5343,7 +5348,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5357,7 +5362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5390,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5405,7 +5410,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5419,7 +5424,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5447,7 +5452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5467,7 +5472,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5487,7 +5492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5501,7 +5506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5515,7 +5520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5529,7 +5534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5549,7 +5554,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5569,7 +5574,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5597,7 +5602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5611,7 +5616,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5625,7 +5630,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5645,7 +5650,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5701,7 +5706,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5735,7 +5740,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5749,7 +5754,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5763,7 +5768,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5797,7 +5802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5811,7 +5816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5831,7 +5836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5845,7 +5850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5893,7 +5898,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5907,7 +5912,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5921,7 +5926,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5935,7 +5940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5969,7 +5974,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5989,7 +5994,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6055,17 +6060,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6119,7 +6124,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6139,7 +6144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6153,7 +6158,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6181,7 +6186,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6201,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6241,7 +6246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6255,7 +6260,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6269,7 +6274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6283,7 +6288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6303,7 +6308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6317,7 +6322,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6351,7 +6356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6365,7 +6370,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6385,7 +6390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6405,7 +6410,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6433,7 +6438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6453,7 +6458,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6481,7 +6486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6501,7 +6506,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6529,7 +6534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6557,7 +6562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6633,7 +6638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6647,7 +6652,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6681,7 +6686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6695,7 +6700,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6715,7 +6720,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6729,7 +6734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6743,7 +6748,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6791,7 +6796,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6825,7 +6830,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6873,7 +6878,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6887,7 +6892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6901,7 +6906,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6935,7 +6940,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6949,7 +6954,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6997,7 +7002,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -7017,7 +7022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -7031,7 +7036,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7079,18 +7084,18 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7130,7 +7135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +7163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7220,7 +7225,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7248,7 +7253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7268,7 +7273,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7282,7 +7287,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7316,7 +7321,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7330,7 +7335,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7344,7 +7349,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7392,7 +7397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7406,7 +7411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7440,7 +7445,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7457,7 +7462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7525,7 +7530,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7545,7 +7550,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7579,7 +7584,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7593,7 +7598,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7669,7 +7674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7689,7 +7694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7703,7 +7708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7717,7 +7722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7731,7 +7736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7751,7 +7756,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7771,7 +7776,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7785,7 +7790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7799,7 +7804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7813,7 +7818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7833,7 +7838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7909,7 +7914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7923,7 +7928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7937,7 +7942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7957,7 +7962,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7971,7 +7976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7985,7 +7990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -8013,7 +8018,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8041,7 +8046,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8061,7 +8066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8075,7 +8080,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8089,7 +8094,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8103,7 +8108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8117,7 +8122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8137,7 +8142,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8151,7 +8156,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8165,7 +8170,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8190,24 +8195,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" activeCellId="7" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31 E34:E35 E38:E41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" activeCellId="8" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31 E34:E35 E38:E41 E44:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8227,7 +8232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8266,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8275,7 +8280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8289,7 +8294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8303,7 +8308,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8323,7 +8328,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8337,7 +8342,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8351,7 +8356,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8365,7 +8370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8393,7 +8398,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8413,7 +8418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8481,7 +8486,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8509,7 +8514,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8537,7 +8542,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8557,7 +8562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8571,7 +8576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8585,7 +8590,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -8605,7 +8610,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8619,7 +8624,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8701,7 +8706,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8715,7 +8720,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8729,7 +8734,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -8741,6 +8746,96 @@
       </c>
       <c r="F42" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>398</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>392</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8760,17 +8855,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8790,7 +8885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8811,7 +8906,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8832,7 +8927,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8853,7 +8948,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8874,7 +8969,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8895,7 +8990,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8916,34 +9011,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -8951,24 +9046,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.54639175257731953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55276381909547734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.285714285714286</v>
+        <v>13.428571428571429</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -8976,15 +9071,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>27.714285714285715</v>
+        <v>28.428571428571427</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12.571428571428571</v>
+        <v>12.714285714285714</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.54639175257731964</v>
+        <v>0.55276381909547734</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10730" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8D5EFC-C9B4-4510-9707-5DAA0E0A8DFC}"/>
+  <xr:revisionPtr revIDLastSave="10744" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC8B772-E594-4372-BDC1-2B2FAE158F94}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="406">
   <si>
     <t>ROUND</t>
   </si>
@@ -1245,6 +1245,21 @@
   </si>
   <si>
     <t>Tamara Zidanšek (SLOVENIA)</t>
+  </si>
+  <si>
+    <t>BERLIN OPEN</t>
+  </si>
+  <si>
+    <t>(4) Jessica Pegula</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-2</t>
+  </si>
+  <si>
+    <t>7-6(9) RETIRED</t>
+  </si>
+  <si>
+    <t>7-5 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1532,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,7 +1622,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,7 +2116,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,17 +3911,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3926,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3946,7 +3961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3980,7 +3995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -3994,7 +4009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4014,12 +4029,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4038,17 +4053,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4068,7 +4083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4088,7 +4103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4102,7 +4117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4122,7 +4137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4136,7 +4151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4150,7 +4165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4164,7 +4179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4178,7 +4193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4238,7 +4253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4252,7 +4267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4292,7 +4307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4306,7 +4321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4320,7 +4335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4348,7 +4363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4368,7 +4383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4388,7 +4403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4417,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4416,7 +4431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4450,7 +4465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4470,7 +4485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4498,7 +4513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4512,7 +4527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4526,7 +4541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4540,7 +4555,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4588,7 +4603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4622,7 +4637,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4636,7 +4651,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4670,7 +4685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4698,7 +4713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4712,7 +4727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4726,7 +4741,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4740,7 +4755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4754,7 +4769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4792,17 +4807,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4822,7 +4837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4856,7 +4871,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4876,7 +4891,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4890,7 +4905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4904,7 +4919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4918,7 +4933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4938,7 +4953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4952,7 +4967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4966,7 +4981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -5000,7 +5015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5020,7 +5035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5040,7 +5055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5074,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5088,7 +5103,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5108,7 +5123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5122,7 +5137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5136,7 +5151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5168,17 +5183,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5198,7 +5213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5218,7 +5233,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5232,7 +5247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5252,7 +5267,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5286,7 +5301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5300,7 +5315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5320,7 +5335,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5348,7 +5363,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5362,7 +5377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5410,7 +5425,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5424,7 +5439,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5438,7 +5453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5452,7 +5467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5472,7 +5487,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5492,7 +5507,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5506,7 +5521,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5520,7 +5535,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5534,7 +5549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5554,7 +5569,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5574,7 +5589,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5588,7 +5603,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5602,7 +5617,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5616,7 +5631,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5630,7 +5645,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5664,7 +5679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5678,7 +5693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5692,7 +5707,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5706,7 +5721,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5740,7 +5755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5768,7 +5783,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5802,7 +5817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5816,7 +5831,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5836,7 +5851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5850,7 +5865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5864,7 +5879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5878,7 +5893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5898,7 +5913,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5912,7 +5927,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5926,7 +5941,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5940,7 +5955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5960,7 +5975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5974,7 +5989,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5994,7 +6009,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -6008,7 +6023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6028,7 +6043,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6060,17 +6075,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6110,7 +6125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6144,7 +6159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6158,7 +6173,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6172,7 +6187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6186,7 +6201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6206,7 +6221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6226,7 +6241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6246,7 +6261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6260,7 +6275,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6274,7 +6289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6288,7 +6303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6308,7 +6323,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6322,7 +6337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6342,7 +6357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6356,7 +6371,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6370,7 +6385,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6390,7 +6405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6410,7 +6425,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6424,7 +6439,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6438,7 +6453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6458,7 +6473,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6472,7 +6487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6486,7 +6501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6506,7 +6521,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6520,7 +6535,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6534,7 +6549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6548,7 +6563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6562,7 +6577,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6576,7 +6591,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6610,7 +6625,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6624,7 +6639,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6638,7 +6653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6652,7 +6667,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6672,7 +6687,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6686,7 +6701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6700,7 +6715,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6720,7 +6735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6748,7 +6763,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6768,7 +6783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6782,7 +6797,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6811,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6810,7 +6825,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6830,7 +6845,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6850,7 +6865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6864,7 +6879,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6878,7 +6893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6892,7 +6907,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6906,7 +6921,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6926,7 +6941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6940,7 +6955,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6954,7 +6969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6974,7 +6989,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6988,7 +7003,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -7002,7 +7017,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -7022,7 +7037,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -7036,7 +7051,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7050,7 +7065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7084,18 +7099,18 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7115,7 +7130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7135,7 +7150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7149,7 +7164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7177,7 +7192,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7191,7 +7206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7211,7 +7226,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7225,7 +7240,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7239,7 +7254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7253,7 +7268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7273,7 +7288,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7287,7 +7302,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7307,7 +7322,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7321,7 +7336,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7335,7 +7350,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7369,7 +7384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7383,7 +7398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7397,7 +7412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7411,7 +7426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7431,7 +7446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7462,7 +7477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7482,7 +7497,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7496,7 +7511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7516,7 +7531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7530,7 +7545,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7550,7 +7565,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7584,7 +7599,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7598,7 +7613,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7612,7 +7627,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7626,7 +7641,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7660,7 +7675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7674,7 +7689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7694,7 +7709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7708,7 +7723,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7722,7 +7737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7736,7 +7751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7776,7 +7791,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7790,7 +7805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7804,7 +7819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7818,7 +7833,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7838,7 +7853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7852,7 +7867,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7866,7 +7881,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7886,7 +7901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7900,7 +7915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7914,7 +7929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7928,7 +7943,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7942,7 +7957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7962,7 +7977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7976,7 +7991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -7990,7 +8005,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -8004,7 +8019,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -8018,7 +8033,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -8032,7 +8047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8046,7 +8061,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8066,7 +8081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8080,7 +8095,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8094,7 +8109,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8108,7 +8123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8122,7 +8137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8142,7 +8157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8156,7 +8171,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8170,7 +8185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8195,24 +8210,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="8" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31 E34:E35 E38:E41 E44:E48"/>
+      <selection activeCell="E51" sqref="E51:E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8232,7 +8247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8252,7 +8267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8266,7 +8281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8280,7 +8295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8294,7 +8309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8308,7 +8323,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8328,7 +8343,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8342,7 +8357,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8356,7 +8371,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8370,7 +8385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8384,7 +8399,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8398,7 +8413,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8418,7 +8433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8438,7 +8453,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8452,7 +8467,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8466,7 +8481,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8486,7 +8501,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8500,7 +8515,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8514,7 +8529,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8528,7 +8543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8542,7 +8557,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8562,7 +8577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8576,7 +8591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8590,7 +8605,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -8610,7 +8625,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8624,7 +8639,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -8644,7 +8659,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -8658,7 +8673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8672,7 +8687,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -8692,7 +8707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8706,7 +8721,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8720,7 +8735,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8734,7 +8749,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -8748,7 +8763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -8768,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -8782,7 +8797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -8796,7 +8811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -8810,7 +8825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -8824,7 +8839,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8836,6 +8851,54 @@
       </c>
       <c r="F49" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>402</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8855,17 +8918,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8885,7 +8948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8906,7 +8969,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8927,7 +8990,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8948,7 +9011,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8969,7 +9032,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8990,7 +9053,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -9011,34 +9074,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -9046,24 +9109,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.55276381909547734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.55223880597014929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.428571428571429</v>
+        <v>13.571428571428571</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -9071,15 +9134,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>28.428571428571427</v>
+        <v>28.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12.714285714285714</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.55276381909547734</v>
+        <v>0.55223880597014929</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10744" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC8B772-E594-4372-BDC1-2B2FAE158F94}"/>
+  <xr:revisionPtr revIDLastSave="10763" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527DCB58-BAA5-49A4-A1D9-3B60F99DA1B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="407">
   <si>
     <t>ROUND</t>
   </si>
@@ -1250,9 +1250,6 @@
     <t>BERLIN OPEN</t>
   </si>
   <si>
-    <t>(4) Jessica Pegula</t>
-  </si>
-  <si>
     <t>7-6(6) 6-2</t>
   </si>
   <si>
@@ -1260,6 +1257,12 @@
   </si>
   <si>
     <t>7-5 7-6(2)</t>
+  </si>
+  <si>
+    <t>Anca Todoni (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Sonay Kartal (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,7 +1625,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2116,7 +2119,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.68571428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,6 +3608,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3911,17 +3918,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3961,7 +3968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4029,12 +4036,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4053,17 +4060,17 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4117,7 +4124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4165,7 +4172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4213,7 +4220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4233,7 +4240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4287,7 +4294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4307,7 +4314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4403,7 +4410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +4424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4451,7 +4458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4465,7 +4472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4513,7 +4520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4555,7 +4562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4603,7 +4610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4617,7 +4624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +4734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4755,7 +4762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4807,17 +4814,17 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4871,7 +4878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +4974,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4981,7 +4988,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -4995,7 +5002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -5015,7 +5022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5055,7 +5062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5069,7 +5076,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5089,7 +5096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5123,7 +5130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5183,17 +5190,17 @@
       <selection activeCell="D69" sqref="D69:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5247,7 +5254,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5267,7 +5274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5281,7 +5288,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5335,7 +5342,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5349,7 +5356,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5377,7 +5384,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5405,7 +5412,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5425,7 +5432,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5467,7 +5474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5487,7 +5494,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5507,7 +5514,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5569,7 +5576,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5603,7 +5610,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5624,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5665,7 +5672,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5693,7 +5700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5707,7 +5714,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5741,7 +5748,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5755,7 +5762,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5769,7 +5776,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5797,7 +5804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5817,7 +5824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5851,7 +5858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5865,7 +5872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5879,7 +5886,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5913,7 +5920,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5927,7 +5934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5941,7 +5948,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5955,7 +5962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5975,7 +5982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -6009,7 +6016,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6043,7 +6050,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6075,17 +6082,17 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6105,7 +6112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6125,7 +6132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6159,7 +6166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6173,7 +6180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6187,7 +6194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6221,7 +6228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6241,7 +6248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6275,7 +6282,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6289,7 +6296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6323,7 +6330,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6357,7 +6364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6385,7 +6392,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6425,7 +6432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6439,7 +6446,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6487,7 +6494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6501,7 +6508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6521,7 +6528,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6535,7 +6542,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6549,7 +6556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6577,7 +6584,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6591,7 +6598,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6605,7 +6612,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6625,7 +6632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6639,7 +6646,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6653,7 +6660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6667,7 +6674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6715,7 +6722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6735,7 +6742,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6763,7 +6770,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6797,7 +6804,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6811,7 +6818,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6825,7 +6832,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6845,7 +6852,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6865,7 +6872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6879,7 +6886,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6907,7 +6914,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6921,7 +6928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6941,7 +6948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6955,7 +6962,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6989,7 +6996,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -7003,7 +7010,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -7017,7 +7024,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -7051,7 +7058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7065,7 +7072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7099,18 +7106,18 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7150,7 +7157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7164,7 +7171,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7178,7 +7185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7192,7 +7199,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7206,7 +7213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7226,7 +7233,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7240,7 +7247,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7254,7 +7261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7268,7 +7275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7288,7 +7295,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +7309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7322,7 +7329,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7336,7 +7343,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7384,7 +7391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7426,7 +7433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7477,7 +7484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7497,7 +7504,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7511,7 +7518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7531,7 +7538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7545,7 +7552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7565,7 +7572,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7579,7 +7586,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7599,7 +7606,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7613,7 +7620,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7627,7 +7634,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7641,7 +7648,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7655,7 +7662,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7675,7 +7682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7723,7 +7730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7737,7 +7744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7751,7 +7758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7805,7 +7812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7819,7 +7826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7853,7 +7860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7867,7 +7874,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7901,7 +7908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7915,7 +7922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7929,7 +7936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7943,7 +7950,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7957,7 +7964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7977,7 +7984,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -8005,7 +8012,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -8019,7 +8026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -8033,7 +8040,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -8047,7 +8054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8061,7 +8068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8081,7 +8088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8095,7 +8102,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8109,7 +8116,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8137,7 +8144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8157,7 +8164,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8171,7 +8178,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8185,7 +8192,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8210,24 +8217,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:E53"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8247,7 +8254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8267,7 +8274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8281,7 +8288,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8295,7 +8302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8309,7 +8316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8357,7 +8364,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8385,7 +8392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8399,7 +8406,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8413,7 +8420,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8453,7 +8460,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8467,7 +8474,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8481,7 +8488,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8501,7 +8508,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8515,7 +8522,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8529,7 +8536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8543,7 +8550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8557,7 +8564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8577,7 +8584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8605,7 +8612,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -8625,7 +8632,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8639,7 +8646,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -8659,7 +8666,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -8673,7 +8680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8687,7 +8694,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -8707,7 +8714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8721,7 +8728,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8735,7 +8742,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8749,7 +8756,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -8763,7 +8770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -8783,7 +8790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -8797,7 +8804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -8811,7 +8818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -8825,7 +8832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -8839,7 +8846,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8853,7 +8860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>401</v>
       </c>
@@ -8870,10 +8877,10 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -8884,21 +8891,83 @@
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>369</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
         <v>405</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>406</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>364</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8918,17 +8987,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8948,7 +9017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8969,7 +9038,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8990,7 +9059,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9011,7 +9080,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -9032,7 +9101,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -9053,7 +9122,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -9074,34 +9143,34 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -9109,24 +9178,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.55223880597014929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55392156862745101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.571428571428571</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -9134,15 +9203,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>28.714285714285715</v>
+        <v>29.142857142857142</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>12.857142857142858</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.55223880597014929</v>
+        <v>0.55392156862745101</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10763" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527DCB58-BAA5-49A4-A1D9-3B60F99DA1B0}"/>
+  <xr:revisionPtr revIDLastSave="10859" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDC9480-AB88-4424-91BC-A72F986DE31E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="2325" yWindow="6285" windowWidth="8625" windowHeight="15285" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="425">
   <si>
     <t>ROUND</t>
   </si>
@@ -1263,6 +1263,60 @@
   </si>
   <si>
     <t>Sonay Kartal (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>OLYMPICS</t>
+  </si>
+  <si>
+    <t>María Lourdes Carlé (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Ajla Tomljanović (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Donna Vekić (CROATIA)</t>
+  </si>
+  <si>
+    <t>7-6(7) 6-2</t>
+  </si>
+  <si>
+    <t>Yafan Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>Diana Shnaider (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-4 2-6 6-4</t>
+  </si>
+  <si>
+    <t>6-2 6-0</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-3</t>
+  </si>
+  <si>
+    <t>6-3 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Yuliia Starodubtseva (UKRAINE)</t>
+  </si>
+  <si>
+    <t>3-6 6-4 RETIRED</t>
+  </si>
+  <si>
+    <t>2-6 6-2 6-2</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>WUHAN OPEN</t>
+  </si>
+  <si>
+    <t>Viktoriya Tomova (BULGARIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-6 6-4 6-4 </t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1589,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,7 +1679,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,7 +2173,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68571428571428572</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,10 +3662,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3915,20 +3965,20 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3948,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3968,7 +4018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -3982,7 +4032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -4002,7 +4052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4036,12 +4086,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4057,20 +4107,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4110,7 +4160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4124,7 +4174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4144,7 +4194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -4158,7 +4208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4236,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4200,7 +4250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4220,7 +4270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4240,7 +4290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4260,7 +4310,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -4274,7 +4324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -4294,7 +4344,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4314,7 +4364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -4328,7 +4378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4356,7 +4406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4370,7 +4420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -4390,7 +4440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4410,7 +4460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -4424,7 +4474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -4438,7 +4488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4458,7 +4508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>21</v>
       </c>
@@ -4472,7 +4522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4492,7 +4542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -4506,7 +4556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>28</v>
       </c>
@@ -4520,7 +4570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -4534,7 +4584,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -4548,7 +4598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -4562,7 +4612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -4576,7 +4626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -4596,7 +4646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>21</v>
       </c>
@@ -4610,7 +4660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -4624,7 +4674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4644,7 +4694,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -4658,7 +4708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -4672,7 +4722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4692,7 +4742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -4706,7 +4756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -4720,7 +4770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -4734,7 +4784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -4748,7 +4798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -4762,7 +4812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -4776,7 +4826,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -4811,20 +4861,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4844,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -4864,7 +4914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4878,7 +4928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4898,7 +4948,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -4912,7 +4962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4926,7 +4976,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4940,7 +4990,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -4960,7 +5010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -4974,7 +5024,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -4988,7 +5038,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -5002,7 +5052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -5022,7 +5072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5042,7 +5092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5062,7 +5112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5076,7 +5126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5096,7 +5146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -5110,7 +5160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -5130,7 +5180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -5144,7 +5194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -5158,7 +5208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -5187,20 +5237,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:D70"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5220,7 +5270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -5240,7 +5290,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -5254,7 +5304,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5274,7 +5324,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5288,7 +5338,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5308,7 +5358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -5322,7 +5372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -5342,7 +5392,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -5356,7 +5406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -5370,7 +5420,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -5384,7 +5434,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -5398,7 +5448,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -5412,7 +5462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5432,7 +5482,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5446,7 +5496,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -5474,7 +5524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -5494,7 +5544,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -5514,7 +5564,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -5528,7 +5578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5556,7 +5606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>266</v>
       </c>
@@ -5576,7 +5626,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -5596,7 +5646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5610,7 +5660,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -5624,7 +5674,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -5638,7 +5688,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
@@ -5652,7 +5702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
@@ -5672,7 +5722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5686,7 +5736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5700,7 +5750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -5714,7 +5764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -5728,7 +5778,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5748,7 +5798,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -5762,7 +5812,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -5776,7 +5826,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -5790,7 +5840,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -5804,7 +5854,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -5824,7 +5874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5838,7 +5888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5858,7 +5908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>31</v>
       </c>
@@ -5872,7 +5922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -5886,7 +5936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5900,7 +5950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -5920,7 +5970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -5934,7 +5984,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>11</v>
       </c>
@@ -5948,7 +5998,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -5962,7 +6012,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5982,7 +6032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>12</v>
       </c>
@@ -5996,7 +6046,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -6016,7 +6066,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>31</v>
       </c>
@@ -6030,7 +6080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6050,7 +6100,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -6079,20 +6129,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6112,7 +6162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6132,7 +6182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6146,7 +6196,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6166,7 +6216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6180,7 +6230,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6194,7 +6244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6208,7 +6258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -6228,7 +6278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -6248,7 +6298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -6268,7 +6318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -6282,7 +6332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -6296,7 +6346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -6310,7 +6360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6330,7 +6380,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6344,7 +6394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -6364,7 +6414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6378,7 +6428,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6392,7 +6442,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -6412,7 +6462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -6432,7 +6482,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -6446,7 +6496,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -6460,7 +6510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6480,7 +6530,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6494,7 +6544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6508,7 +6558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -6528,7 +6578,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -6542,7 +6592,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -6556,7 +6606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -6584,7 +6634,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
@@ -6598,7 +6648,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +6662,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -6632,7 +6682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6646,7 +6696,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -6660,7 +6710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>16</v>
       </c>
@@ -6674,7 +6724,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -6694,7 +6744,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>31</v>
       </c>
@@ -6708,7 +6758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -6722,7 +6772,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -6742,7 +6792,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -6756,7 +6806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -6770,7 +6820,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -6790,7 +6840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -6804,7 +6854,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>11</v>
       </c>
@@ -6818,7 +6868,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -6832,7 +6882,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6852,7 +6902,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6872,7 +6922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>31</v>
       </c>
@@ -6886,7 +6936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -6900,7 +6950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -6914,7 +6964,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +6978,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -6948,7 +6998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -6962,7 +7012,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -6976,7 +7026,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -6996,7 +7046,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -7010,7 +7060,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7074,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -7044,7 +7094,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -7058,7 +7108,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>324</v>
       </c>
@@ -7072,7 +7122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7103,21 +7153,21 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7137,7 +7187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -7157,7 +7207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7171,7 +7221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7185,7 +7235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7199,7 +7249,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7213,7 +7263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7233,7 +7283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -7247,7 +7297,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -7261,7 +7311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -7275,7 +7325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -7295,7 +7345,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7309,7 +7359,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -7329,7 +7379,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7343,7 +7393,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7357,7 +7407,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7371,7 +7421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7391,7 +7441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -7405,7 +7455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7433,7 +7483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7453,7 +7503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -7467,7 +7517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -7484,7 +7534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -7504,7 +7554,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7518,7 +7568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -7538,7 +7588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -7552,7 +7602,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7572,7 +7622,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -7586,7 +7636,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7606,7 +7656,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7620,7 +7670,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -7634,7 +7684,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -7648,7 +7698,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -7662,7 +7712,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -7682,7 +7732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -7696,7 +7746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -7716,7 +7766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -7730,7 +7780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -7744,7 +7794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -7758,7 +7808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7778,7 +7828,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -7798,7 +7848,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7812,7 +7862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7826,7 +7876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>17</v>
       </c>
@@ -7840,7 +7890,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -7860,7 +7910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
@@ -7874,7 +7924,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7888,7 +7938,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7908,7 +7958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -7922,7 +7972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -7936,7 +7986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>16</v>
       </c>
@@ -7950,7 +8000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
@@ -7964,7 +8014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7984,7 +8034,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
@@ -7998,7 +8048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -8012,7 +8062,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -8026,7 +8076,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -8040,7 +8090,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -8054,7 +8104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>17</v>
       </c>
@@ -8068,7 +8118,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -8088,7 +8138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>12</v>
       </c>
@@ -8102,7 +8152,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -8116,7 +8166,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>15</v>
       </c>
@@ -8130,7 +8180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8144,7 +8194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -8164,7 +8214,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>324</v>
       </c>
@@ -8178,7 +8228,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>324</v>
       </c>
@@ -8192,7 +8242,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8217,24 +8267,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:F58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E81" activeCellId="15" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31 E34:E35 E38:E41 E44:E48 E51:E52 E55:E57 E60:E61 E64 E69:E71 E74:E79 E81:E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8254,7 +8304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8274,7 +8324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8288,7 +8338,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8302,7 +8352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8316,7 +8366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8330,7 +8380,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -8350,7 +8400,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -8364,7 +8414,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -8378,7 +8428,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -8392,7 +8442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -8406,7 +8456,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -8420,7 +8470,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -8440,7 +8490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -8460,7 +8510,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -8474,7 +8524,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8488,7 +8538,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8508,7 +8558,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -8522,7 +8572,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8536,7 +8586,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8564,7 +8614,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -8584,7 +8634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -8598,7 +8648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -8612,7 +8662,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>303</v>
       </c>
@@ -8632,7 +8682,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8646,7 +8696,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -8666,7 +8716,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -8680,7 +8730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8694,7 +8744,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -8714,7 +8764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8728,7 +8778,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8742,7 +8792,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8756,7 +8806,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -8770,7 +8820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -8790,7 +8840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>31</v>
       </c>
@@ -8804,7 +8854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -8818,7 +8868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -8832,7 +8882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -8846,7 +8896,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>16</v>
       </c>
@@ -8860,7 +8910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>401</v>
       </c>
@@ -8880,7 +8930,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>15</v>
       </c>
@@ -8894,7 +8944,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>16</v>
       </c>
@@ -8908,7 +8958,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -8928,7 +8978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>31</v>
       </c>
@@ -8942,7 +8992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -8956,7 +9006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -8968,6 +9018,322 @@
       </c>
       <c r="F58" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>407</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>408</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>410</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>412</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>413</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>363</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>364</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>381</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>423</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -8987,17 +9353,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9017,7 +9383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -9038,7 +9404,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -9059,7 +9425,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -9080,7 +9446,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -9101,7 +9467,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -9122,7 +9488,7 @@
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -9143,75 +9509,75 @@
         <v>0.68627450980392157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.68571428571428572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.55392156862745101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.56164383561643838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.714285714285714</v>
+        <v>14.571428571428571</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>29.142857142857142</v>
+        <v>31.285714285714285</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>13</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.55392156862745101</v>
+        <v>0.56164383561643827</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10859" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDC9480-AB88-4424-91BC-A72F986DE31E}"/>
+  <xr:revisionPtr revIDLastSave="10896" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8BDE1B1-0EA8-4069-B688-90BC26ED57FF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2325" yWindow="6285" windowWidth="8625" windowHeight="15285" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="427">
   <si>
     <t>ROUND</t>
   </si>
@@ -812,9 +812,6 @@
     <t>Belinda Bencic (SWITZERLAND)</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Ekaterina Alexandrova (RUSSIA)</t>
   </si>
   <si>
@@ -1317,6 +1314,15 @@
   </si>
   <si>
     <t xml:space="preserve">1-6 6-4 6-4 </t>
+  </si>
+  <si>
+    <t>3-6 6-4 7-6(2)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1411,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1414,6 +1420,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1589,7 +1596,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1686,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,7 +2180,7 @@
                   <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68</c:v>
+                  <c:v>0.68518518518518523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,6 +3669,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4151,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4199,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -5236,7 +5247,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5464,7 +5475,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -5473,7 +5484,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -5487,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -5546,7 +5557,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -5555,7 +5566,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -5569,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5583,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -5608,7 +5619,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -5617,7 +5628,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -5637,7 +5648,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5665,7 +5676,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -5679,7 +5690,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -5693,7 +5704,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -5704,7 +5715,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -5713,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -5727,7 +5738,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -5741,7 +5752,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -5769,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -5789,7 +5800,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -5803,7 +5814,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -5817,7 +5828,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -5845,7 +5856,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -5856,7 +5867,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -5865,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -5913,7 +5924,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -5941,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -5952,7 +5963,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -6003,7 +6014,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -6023,7 +6034,7 @@
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -6057,7 +6068,7 @@
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -6071,7 +6082,7 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -6091,7 +6102,7 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -6105,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -6128,13 +6139,13 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -6164,7 +6175,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6187,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -6198,7 +6209,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6221,7 +6232,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -6235,7 +6246,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -6249,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -6269,7 +6280,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -6280,7 +6291,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6289,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -6300,7 +6311,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -6323,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -6337,7 +6348,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6371,7 +6382,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6385,7 +6396,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6405,7 +6416,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6419,7 +6430,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -6433,7 +6444,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -6444,7 +6455,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -6464,7 +6475,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -6473,7 +6484,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -6487,7 +6498,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -6501,7 +6512,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
@@ -6521,7 +6532,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -6535,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6569,7 +6580,7 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6583,7 +6594,7 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -6597,7 +6608,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6611,7 +6622,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -6625,7 +6636,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -6653,7 +6664,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -6664,7 +6675,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -6687,7 +6698,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -6701,7 +6712,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6715,7 +6726,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -6735,7 +6746,7 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -6749,7 +6760,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6763,7 +6774,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -6774,7 +6785,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6783,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -6811,7 +6822,7 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -6822,7 +6833,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -6831,7 +6842,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -6845,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
@@ -6859,7 +6870,7 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -6893,13 +6904,13 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>315</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6913,7 +6924,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -6927,7 +6938,7 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -6941,7 +6952,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -6955,7 +6966,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -6969,7 +6980,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -6980,7 +6991,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -6989,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -7003,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -7017,7 +7028,7 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
@@ -7028,7 +7039,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -7037,7 +7048,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -7065,7 +7076,7 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -7076,13 +7087,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D78" t="s">
         <v>67</v>
@@ -7096,10 +7107,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
@@ -7110,10 +7121,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -7124,7 +7135,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -7152,13 +7163,13 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -7198,7 +7209,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7226,7 +7237,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -7240,7 +7251,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -7254,7 +7265,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -7288,13 +7299,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>335</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7302,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7327,7 +7338,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -7336,13 +7347,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7350,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -7361,7 +7372,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -7370,7 +7381,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7384,7 +7395,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
@@ -7398,13 +7409,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7412,13 +7423,13 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7432,7 +7443,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7446,7 +7457,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7474,7 +7485,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -7494,7 +7505,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7519,13 +7530,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -7536,7 +7547,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -7545,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -7570,7 +7581,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -7579,7 +7590,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -7593,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -7613,7 +7624,7 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -7627,7 +7638,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
@@ -7647,13 +7658,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7661,7 +7672,7 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -7675,13 +7686,13 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7689,7 +7700,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -7703,18 +7714,18 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -7737,7 +7748,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -7748,7 +7759,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -7757,7 +7768,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -7771,7 +7782,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -7785,7 +7796,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7799,7 +7810,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -7825,7 +7836,7 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,7 +7850,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -7867,7 +7878,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
@@ -7892,7 +7903,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7915,7 +7926,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -7929,13 +7940,13 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7949,7 +7960,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -7963,7 +7974,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -7991,7 +8002,7 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -8005,7 +8016,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -8039,7 +8050,7 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -8053,7 +8064,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8067,13 +8078,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -8087,7 +8098,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8095,7 +8106,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
@@ -8109,18 +8120,18 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -8129,7 +8140,7 @@
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -8149,7 +8160,7 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -8157,13 +8168,13 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -8185,7 +8196,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
@@ -8196,16 +8207,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
@@ -8216,30 +8227,30 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,7 +8258,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>14</v>
@@ -8267,15 +8278,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E81" activeCellId="15" sqref="E2:E6 E8:E12 E17:E18 E21:E24 E27:E28 E31 E34:E35 E38:E41 E44:E48 E51:E52 E55:E57 E60:E61 E64 E69:E71 E74:E79 E81:E83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -8315,7 +8326,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -8329,7 +8340,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8343,7 +8354,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8357,7 +8368,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -8371,13 +8382,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8391,7 +8402,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -8405,13 +8416,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,7 +8430,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8433,7 +8444,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8447,13 +8458,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8461,18 +8472,18 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -8492,7 +8503,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -8501,13 +8512,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8515,13 +8526,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8529,13 +8540,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8549,13 +8560,13 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8563,13 +8574,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8577,7 +8588,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -8591,7 +8602,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -8611,7 +8622,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8625,7 +8636,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -8639,7 +8650,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -8653,18 +8664,18 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -8673,13 +8684,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
         <v>387</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8687,18 +8698,18 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -8707,13 +8718,13 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
+        <v>389</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>390</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8721,7 +8732,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -8735,7 +8746,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
@@ -8755,7 +8766,7 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -8769,13 +8780,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>393</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8783,13 +8794,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8797,13 +8808,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8811,7 +8822,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -8831,7 +8842,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -8845,7 +8856,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -8859,7 +8870,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -8873,7 +8884,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -8887,13 +8898,13 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8901,7 +8912,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -8912,7 +8923,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -8921,13 +8932,13 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8935,13 +8946,13 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8949,13 +8960,13 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8969,7 +8980,7 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -8983,7 +8994,7 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -8997,7 +9008,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -9011,7 +9022,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -9022,7 +9033,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -9031,7 +9042,7 @@
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -9045,7 +9056,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -9059,18 +9070,18 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>409</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>410</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -9079,7 +9090,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -9093,7 +9104,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -9113,13 +9124,13 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9133,13 +9144,13 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9147,7 +9158,7 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -9161,13 +9172,13 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9175,18 +9186,18 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -9195,7 +9206,7 @@
         <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -9229,7 +9240,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9237,13 +9248,13 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9251,13 +9262,13 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9265,7 +9276,7 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -9276,7 +9287,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -9285,7 +9296,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -9299,7 +9310,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -9313,7 +9324,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -9327,12 +9338,92 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="C87" t="s">
+        <v>323</v>
+      </c>
+      <c r="D87" t="s">
+        <v>351</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="C88" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>396</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
         <v>424</v>
       </c>
     </row>
@@ -9349,7 +9440,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -9514,20 +9605,20 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.68518518518518523</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9536,23 +9627,23 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.56164383561643838</v>
+        <v>0.56502242152466364</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9561,23 +9652,23 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>14.571428571428571</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>1.1428571428571428</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>31.285714285714285</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>13.714285714285714</v>
+        <v>13.857142857142858</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.56164383561643827</v>
+        <v>0.56502242152466364</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10896" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8BDE1B1-0EA8-4069-B688-90BC26ED57FF}"/>
+  <xr:revisionPtr revIDLastSave="10951" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F6B959B-76ED-4DF1-AB8A-8D2D604ABB06}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -20,9 +20,8 @@
     <sheet name="2022" sheetId="33" r:id="rId5"/>
     <sheet name="2023" sheetId="36" r:id="rId6"/>
     <sheet name="2024" sheetId="40" r:id="rId7"/>
-    <sheet name="Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="Wins-Losses" sheetId="41" r:id="rId9"/>
-    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId10"/>
+    <sheet name="2025" sheetId="43" r:id="rId8"/>
+    <sheet name="Stats" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="431">
   <si>
     <t>ROUND</t>
   </si>
@@ -1323,6 +1322,18 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>6-3 7-5</t>
+  </si>
+  <si>
+    <t>5-7 6-2 6-1</t>
+  </si>
+  <si>
+    <t>Leylah Fernandez (CANADA)</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
   </si>
 </sst>
 </file>
@@ -1543,10 +1554,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1568,15 +1579,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$8</c:f>
+              <c:f>Stats!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1598,12 +1612,15 @@
                 <c:pt idx="6">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C651-4682-B258-C06C78397AB2}"/>
+              <c16:uniqueId val="{00000000-73D1-462D-AF42-7C5853FD666C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1633,10 +1650,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1658,15 +1675,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$8</c:f>
+              <c:f>Stats!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1688,12 +1708,15 @@
                 <c:pt idx="6">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C651-4682-B258-C06C78397AB2}"/>
+              <c16:uniqueId val="{00000001-73D1-462D-AF42-7C5853FD666C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1995,6 +2018,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2127,10 +2155,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$8</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -2152,15 +2180,18 @@
                 <c:pt idx="6">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$8</c:f>
+              <c:f>Stats!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>-0.5</c:v>
                 </c:pt>
@@ -2182,13 +2213,16 @@
                 <c:pt idx="6">
                   <c:v>0.68518518518518523</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BFC2-4996-99B7-79F167B92D65}"/>
+              <c16:uniqueId val="{00000001-13A8-4188-BA3B-1676D5FD9A6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2490,6 +2524,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3579,47 +3618,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7EBB2DCA-3A9A-426D-B3F8-75FB36816139}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{769D722F-678A-478F-9199-CF330BE26BD8}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4ADF7B-DA78-4C8F-8BD5-3EE1618874AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E308A1-471C-FEEA-6E7F-8817EF46CB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3632,27 +3655,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8581931" cy="5837599"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC51930-7F02-8FD3-5A18-BC220699BF94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910D64D6-624F-0D07-9C0D-13CC1912ED18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3660,12 +3686,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8280,8 +8306,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9434,14 +9460,178 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A27CAE-24A5-41A5-ABE2-C1A8059A473B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9491,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
         <v>-0.5</v>
       </c>
     </row>
@@ -9622,57 +9812,78 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>103</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C2:C8)</f>
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(D2:D8)</f>
-        <v>223</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(E2:E8)</f>
-        <v>97</v>
-      </c>
-      <c r="F9" s="6">
-        <f>(D9-E9)/D9</f>
-        <v>0.56502242152466364</v>
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>14.714285714285714</v>
+        <f>SUM(B2:B9)</f>
+        <v>106</v>
       </c>
       <c r="C10" s="2">
-        <f>AVERAGE(C2:C8)</f>
-        <v>1.2857142857142858</v>
+        <f>SUM(C2:C9)</f>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <f>AVERAGE(D2:D8)</f>
-        <v>31.857142857142858</v>
+        <f>SUM(D2:D9)</f>
+        <v>227</v>
       </c>
       <c r="E10" s="2">
-        <f>AVERAGE(E2:E8)</f>
-        <v>13.857142857142858</v>
+        <f>SUM(E2:E9)</f>
+        <v>100</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.56502242152466364</v>
+        <v>0.55947136563876654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <f>AVERAGE(B2:B9)</f>
+        <v>13.25</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>1.125</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D9)</f>
+        <v>28.375</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E2:E9)</f>
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="6">
+        <f>(D11-E11)/D11</f>
+        <v>0.55947136563876654</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -9683,5 +9894,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10951" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F6B959B-76ED-4DF1-AB8A-8D2D604ABB06}"/>
+  <xr:revisionPtr revIDLastSave="10990" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B3190D-B026-45A1-94ED-8952D2E26A26}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="435">
   <si>
     <t>ROUND</t>
   </si>
@@ -244,9 +244,6 @@
     <t>OSTRAVA OPEN</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>AUCKLAND OPEN</t>
   </si>
   <si>
@@ -1334,6 +1331,21 @@
   </si>
   <si>
     <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-2</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(4)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Ella Seidel (GERMANY)</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1625,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1721,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,7 +2226,7 @@
                   <c:v>0.68518518518518523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,10 +3707,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4037,7 +4045,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -4046,7 +4054,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4060,18 +4068,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4080,13 +4088,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -4114,7 +4122,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -4179,7 +4187,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4188,13 +4196,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -4213,7 +4221,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4222,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -4236,7 +4244,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4250,7 +4258,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4264,13 +4272,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,13 +4286,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,18 +4306,18 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -4318,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -4338,13 +4346,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,18 +4360,18 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>433</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -4372,18 +4380,18 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -4392,7 +4400,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4406,7 +4414,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -4420,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -4434,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -4448,7 +4456,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -4459,7 +4467,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -4468,7 +4476,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -4479,7 +4487,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -4488,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -4502,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -4522,7 +4530,7 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4536,7 +4544,7 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -4550,7 +4558,7 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -4570,7 +4578,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -4584,7 +4592,7 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -4598,7 +4606,7 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -4612,13 +4620,13 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4626,13 +4634,13 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4640,13 +4648,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4654,18 +4662,18 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -4674,7 +4682,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -4688,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -4702,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -4722,13 +4730,13 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4750,13 +4758,13 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4770,13 +4778,13 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,7 +4792,7 @@
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -4804,7 +4812,7 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,13 +4820,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,13 +4834,13 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>139</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,13 +4848,13 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4860,12 +4868,12 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -4874,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -4933,7 +4941,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4942,13 +4950,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,13 +4964,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,13 +4984,13 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4996,7 +5004,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,13 +5012,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5018,18 +5026,18 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -5038,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -5052,13 +5060,13 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,13 +5074,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5080,7 +5088,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5100,7 +5108,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -5120,13 +5128,13 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5140,7 +5148,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -5154,13 +5162,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5174,7 +5182,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5188,13 +5196,13 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5208,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -5222,7 +5230,7 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5250,13 +5258,13 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +5317,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5318,13 +5326,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,18 +5340,18 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5352,13 +5360,13 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5366,13 +5374,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,13 +5394,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5400,7 +5408,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -5411,7 +5419,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -5420,13 +5428,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5434,13 +5442,13 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5448,13 +5456,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,13 +5470,13 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5476,13 +5484,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5490,18 +5498,18 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -5510,13 +5518,13 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5524,13 +5532,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5552,7 +5560,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -5572,18 +5580,18 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -5592,13 +5600,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5606,13 +5614,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5620,13 +5628,13 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5634,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -5645,7 +5653,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -5654,13 +5662,13 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5674,13 +5682,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5688,13 +5696,13 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,13 +5710,13 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,13 +5724,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,18 +5738,18 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -5750,13 +5758,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,7 +5772,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -5778,7 +5786,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -5798,7 +5806,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5806,13 +5814,13 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5826,13 +5834,13 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5840,13 +5848,13 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5854,13 +5862,13 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5868,13 +5876,13 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5882,18 +5890,18 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -5902,13 +5910,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5916,13 +5924,13 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5936,7 +5944,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -5950,7 +5958,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -5964,13 +5972,13 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5978,18 +5986,18 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -5998,13 +6006,13 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6012,13 +6020,13 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6026,13 +6034,13 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6040,13 +6048,13 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6060,7 +6068,7 @@
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -6074,13 +6082,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6094,13 +6102,13 @@
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6108,7 +6116,7 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -6128,13 +6136,13 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,7 +6150,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -6201,7 +6209,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6210,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -6224,18 +6232,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6258,13 +6266,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6272,7 +6280,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -6286,13 +6294,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6306,7 +6314,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -6317,7 +6325,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6326,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -6337,7 +6345,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -6346,7 +6354,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6360,13 +6368,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6374,7 +6382,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6388,7 +6396,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -6408,13 +6416,13 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,13 +6430,13 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,7 +6450,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6456,13 +6464,13 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6470,18 +6478,18 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -6490,7 +6498,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>433</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -6501,7 +6509,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -6510,13 +6518,13 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6524,13 +6532,13 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6538,13 +6546,13 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,13 +6566,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6586,7 +6594,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -6606,13 +6614,13 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6620,13 +6628,13 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6634,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6648,7 +6656,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -6662,13 +6670,13 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,13 +6684,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6690,18 +6698,18 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -6710,13 +6718,13 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,13 +6732,13 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,7 +6746,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -6752,13 +6760,13 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,13 +6780,13 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,7 +6794,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -6800,18 +6808,18 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6820,13 +6828,13 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6834,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -6848,18 +6856,18 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -6868,7 +6876,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -6882,13 +6890,13 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6896,13 +6904,13 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6910,13 +6918,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6930,13 +6938,13 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>314</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,7 +6958,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -6964,13 +6972,13 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6978,13 +6986,13 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6992,13 +7000,13 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,18 +7014,18 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -7026,13 +7034,13 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7040,13 +7048,13 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7054,18 +7062,18 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -7074,13 +7082,13 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,13 +7096,13 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7102,66 +7110,66 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>433</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
@@ -7173,7 +7181,7 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7226,7 +7234,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -7235,7 +7243,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7249,7 +7257,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7263,7 +7271,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -7277,13 +7285,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7291,7 +7299,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -7317,7 +7325,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,13 +7333,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>334</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,7 +7347,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7364,7 +7372,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -7373,13 +7381,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>338</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7387,18 +7395,18 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -7407,13 +7415,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7421,13 +7429,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7435,13 +7443,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7449,13 +7457,13 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7469,7 +7477,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7483,7 +7491,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7497,13 +7505,13 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7511,7 +7519,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -7531,7 +7539,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7545,24 +7553,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -7573,7 +7581,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -7582,13 +7590,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7596,7 +7604,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
@@ -7607,7 +7615,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -7616,7 +7624,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -7630,13 +7638,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7650,13 +7658,13 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -7664,13 +7672,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -7684,13 +7692,13 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7698,13 +7706,13 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7712,13 +7720,13 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -7726,13 +7734,13 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7740,18 +7748,18 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -7774,7 +7782,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
@@ -7785,7 +7793,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -7794,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -7808,7 +7816,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
@@ -7822,7 +7830,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7836,7 +7844,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -7856,18 +7864,18 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -7876,13 +7884,13 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7890,7 +7898,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -7904,7 +7912,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
@@ -7918,18 +7926,18 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7938,7 +7946,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -7952,13 +7960,13 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,13 +7974,13 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7986,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -8000,7 +8008,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -8014,7 +8022,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -8028,13 +8036,13 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -8042,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -8062,13 +8070,13 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -8076,7 +8084,7 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -8090,13 +8098,13 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -8104,13 +8112,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -8124,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8132,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
@@ -8146,18 +8154,18 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -8166,7 +8174,7 @@
         <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -8180,13 +8188,13 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -8194,13 +8202,13 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -8208,7 +8216,7 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -8222,7 +8230,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
@@ -8233,50 +8241,50 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,7 +8292,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>14</v>
@@ -8306,8 +8314,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C72"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,7 +8351,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8352,7 +8360,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -8366,13 +8374,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8380,7 +8388,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8394,13 +8402,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8408,13 +8416,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8428,13 +8436,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8442,13 +8450,13 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8456,13 +8464,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,7 +8478,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -8484,13 +8492,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8498,18 +8506,18 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -8529,7 +8537,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -8538,13 +8546,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8552,13 +8560,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,13 +8574,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8586,13 +8594,13 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8600,13 +8608,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8614,13 +8622,13 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8628,7 +8636,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -8642,13 +8650,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8662,7 +8670,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -8676,7 +8684,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -8690,18 +8698,18 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -8710,13 +8718,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
         <v>386</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8724,18 +8732,18 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -8744,13 +8752,13 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>389</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8758,7 +8766,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -8772,13 +8780,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8792,7 +8800,7 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -8806,13 +8814,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
+        <v>391</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>392</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8820,13 +8828,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8834,13 +8842,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8848,7 +8856,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -8868,7 +8876,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -8882,7 +8890,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -8896,7 +8904,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -8910,7 +8918,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -8924,13 +8932,13 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8938,7 +8946,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -8949,7 +8957,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -8958,13 +8966,13 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8972,13 +8980,13 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8986,13 +8994,13 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9006,7 +9014,7 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -9020,7 +9028,7 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -9034,7 +9042,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -9048,7 +9056,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -9059,7 +9067,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -9068,13 +9076,13 @@
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9082,7 +9090,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -9096,18 +9104,18 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>408</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>409</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -9116,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -9130,7 +9138,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -9150,13 +9158,13 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9170,13 +9178,13 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9184,7 +9192,7 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -9198,13 +9206,13 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9212,18 +9220,18 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -9232,7 +9240,7 @@
         <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -9246,13 +9254,13 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9260,13 +9268,13 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9274,13 +9282,13 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9288,13 +9296,13 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9302,7 +9310,7 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -9313,7 +9321,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -9322,7 +9330,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -9336,7 +9344,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -9350,13 +9358,13 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9364,27 +9372,27 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
@@ -9396,10 +9404,10 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="C87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
@@ -9411,10 +9419,10 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="C88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>14</v>
@@ -9429,13 +9437,13 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -9444,13 +9452,13 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -9464,20 +9472,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" activeCellId="3" sqref="E2:E5 E12:E13 E16:E17 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9512,7 +9520,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -9526,13 +9534,13 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9540,7 +9548,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -9554,13 +9562,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9568,7 +9576,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -9579,7 +9587,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9588,18 +9596,18 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -9608,13 +9616,143 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9816,20 +9954,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9838,7 +9976,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -9846,15 +9984,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.55947136563876654</v>
+        <v>0.55603448275862066</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9863,7 +10001,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>13.25</v>
+        <v>13.625</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -9871,15 +10009,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>28.375</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>12.5</v>
+        <v>12.875</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.55947136563876654</v>
+        <v>0.55603448275862066</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10990" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B3190D-B026-45A1-94ED-8952D2E26A26}"/>
+  <xr:revisionPtr revIDLastSave="11075" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FAE28F-CB0B-44AF-9FFF-AE93D14AF0CD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="25" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="449">
   <si>
     <t>ROUND</t>
   </si>
@@ -1333,9 +1333,6 @@
     <t>McCartney Kessler (USA)</t>
   </si>
   <si>
-    <t>Moyuka Uchijima</t>
-  </si>
-  <si>
     <t>7-6(1) 6-2</t>
   </si>
   <si>
@@ -1346,6 +1343,51 @@
   </si>
   <si>
     <t>Ella Seidel (GERMANY)</t>
+  </si>
+  <si>
+    <t>0-6 6-2 7-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-5 6-1 </t>
+  </si>
+  <si>
+    <t>Victoria Mboko (CANADA)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-1</t>
+  </si>
+  <si>
+    <t>6-4 7-6(5)</t>
+  </si>
+  <si>
+    <t>7-6(3) 4-6 7-6(4)</t>
+  </si>
+  <si>
+    <t>Moyuka Uchijima (JAPAN)</t>
+  </si>
+  <si>
+    <t>Olivia Gadecki (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Tereza Valentová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Lois Boisson (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-4 6-1</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-2 6-4</t>
+  </si>
+  <si>
+    <t>BERLIN TENNIS OPEN</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-1</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1667,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1763,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2268,7 @@
                   <c:v>0.68518518518518523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4360,7 +4402,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6173,8 +6215,8 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6498,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -7130,7 +7172,7 @@
         <v>322</v>
       </c>
       <c r="D78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -7197,8 +7239,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8314,8 +8356,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C23"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9472,10 +9514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" activeCellId="3" sqref="E2:E5 E12:E13 E16:E17 E20"/>
+      <selection activeCell="E47" activeCellId="9" sqref="E6 E8 E10 E14 E18 E21 E28 E35 E45 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9483,9 +9525,9 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9636,13 +9678,13 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9656,7 +9698,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9732,7 +9774,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -9753,6 +9795,330 @@
       </c>
       <c r="F21" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>395</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>442</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>313</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>443</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>447</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>390</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -9954,20 +10320,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9976,23 +10342,23 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.55603448275862066</v>
+        <v>0.57028112449799195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10001,23 +10367,23 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>13.625</v>
+        <v>14.25</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>29</v>
+        <v>31.125</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>12.875</v>
+        <v>13.375</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.55603448275862066</v>
+        <v>0.57028112449799195</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Coco Gauff.xlsx
+++ b/Tennis/WTA Tour/Coco Gauff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11075" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FAE28F-CB0B-44AF-9FFF-AE93D14AF0CD}"/>
+  <xr:revisionPtr revIDLastSave="11142" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DABC886-E7FD-4217-B843-6C33EE5E144F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="452">
   <si>
     <t>ROUND</t>
   </si>
@@ -1388,6 +1388,15 @@
   </si>
   <si>
     <t>7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>6-4 6-7(2) 7-5</t>
+  </si>
+  <si>
+    <t>7-5 4-6 7-6(2)</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1676,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +1772,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +2277,7 @@
                   <c:v>0.68518518518518523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.60606060606060608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8356,8 +8365,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9514,10 +9523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" activeCellId="9" sqref="E6 E8 E10 E14 E18 E21 E28 E35 E45 E47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E61" activeCellId="12" sqref="E6 E8 E10 E14 E18 E21 E28 E35 E45 E47 E51 E56 E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10119,6 +10128,186 @@
       </c>
       <c r="F47" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>451</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>436</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>390</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>407</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10320,20 +10509,20 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10342,7 +10531,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -10350,15 +10539,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.57028112449799195</v>
+        <v>0.5703125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10367,7 +10556,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>14.25</v>
+        <v>14.625</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -10375,15 +10564,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>31.125</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>13.375</v>
+        <v>13.75</v>
       </c>
       <c r="F11" s="6">
         <f>(D11-E11)/D11</f>
-        <v>0.57028112449799195</v>
+        <v>0.5703125</v>
       </c>
     </row>
   </sheetData>
